--- a/results/testing_prediction.xlsx
+++ b/results/testing_prediction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C392"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Scores</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Prediction</t>
         </is>
       </c>
@@ -453,5084 +458,6577 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MATYKVTLINEAEGLNKTIEVPDDQYILDAAEEAGIDLPYSCRAGACSTCAGKLISGTVDQSDQSFLDDDQIEAGYVLTCVAYPTSDCVIETHKEEELY</t>
+          <t>KYTGKCKTKKNKCK</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.8033517599105835</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LLPNLLKSLL</t>
+          <t>MPRDTIQYSEKYYDDKFEYRHVILPPDVAKEIPKNRLLSEGEWRGLGVQQSQGWVHYALHRPEPHILLFRREVPMPAASLSHNP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CKLKEWPAVRTFQWAKVDMHDIYSANQCRISTRLDTRESMWGLWSVEAMYEHYY</t>
+          <t>FLSSIGKILGNLL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.9889355301856995</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SWLSKTAKKLENSAKKRISEGIAIAIQGGPR</t>
+          <t>INWKKIKSIIKAAMN</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
+        <v>0.9858067035675049</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YLDESNIGRGCVEFHWPNPTHWYGDGVKLTNQWVALDNRGLLQYFCAKQARWDQEGHKWSELNGKILRYARMPRSIE</t>
+          <t>GDRSCIIMVVTTDVMLFPEMWCNNSFYATCMWRL</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DGHPHNGGCPIMCYDHPFECCRVFGSKNGIV</t>
+          <t>WMEWDREINNYTSLIHSLIEESQNQQEKNEQELLGSGC</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLLDFVTGVGKDIFAQLIKQI</t>
+          <t>HKCNKENQGIQVII</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HSSGYTRPLRKPSRPIFIRPIGCDVCYGIPSSTARLCCFRYGDCCHL</t>
+          <t>RFRLPFRRPWPIRIHPPPFYPWPFRRFL</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
+        <v>0.9516724348068237</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>QLNFSPNW</t>
+          <t>QRQIRSISGWILSTYLGRPAEPVPLQ</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.8814347386360168</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MYTNSDFVVIKALEDGVNVIGLTRGADTRFHHSEKLDKGEVLIAQFTEHTSAIKVRGKAYIQTRHGVIESEGKK</t>
+          <t>SDSTLGIGINQDWKKCFSPDPCKKAGTQGCMEFCRTISFLLFGECTSKPDQCCCVTK</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PWPTCATRKSPITRKPLSCWNLFINHQRMCFTIDLE</t>
+          <t>GIPCAESCVWIPCTVTALLGCSCSNNVCYN</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0.2680931985378265</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ETEQGVANIRDISDRVSNVAEMQRQIYRQELLKQKYGISKMEIHPISKDEKDGYYNVHIVWYAFCSPMMGVDYWADWFQEMPRKRFHPETR</t>
+          <t>THLEGKVILVAVHVASGYIE</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.7495628595352173</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LCDFIPEPDFRVRQGVHNAMQAQWQLLNEDQLMMKWFGQEQQMDEQKHNCNCFMET</t>
+          <t>HTLCMDPPATY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NITVVMQESGFRNIA</t>
+          <t>ANTAFVSSAHNTQKIPAGAPFNRNLRAMLADLRQNAAFAG</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
+        <v>0.4146548211574554</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GTVSCQKHQDSHKDVAGPATMERLCRAIGIQNWFLFIMRHDKHWLNSPHYDVHRWHHHLVPEHIHQEYHGELESHLLFQL</t>
+          <t>FWQRRIRRWRRFWQRRIRRWRR</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.8898332118988037</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IMFHWDRYCPTNYMKHFHILCCGHSKGEGPQCRGCRIPFDINKVHWEFKPTPSDDQGKTNMSQIPYSMVTVPPS</t>
+          <t>LPRRLHLEPAFLPYSVKAHECC</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.853022575378418</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NWPHPFFHDFFYTARDLNPWPM</t>
+          <t>RRRFVAQQNAIHSRVSRQVPTLSNSV</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
+        <v>0.3375750780105591</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LTCEIDRSLCLLHCRLKGYLRAYCSQQKVCRCVQ</t>
+          <t>PIRNWWIRIWEWLNGIRKRLRQRSPFYVRGHLNVTSTPQP</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.4854975342750549</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EQQHGISQPFLSKKYPPKDMKPRCKLSQSNYYHSEKDGAWPHRMTMPDHMWMKPKIYNPVEWTRMGDYSPYKRGTKKV</t>
+          <t>YHSADYAPPQHSMYVNTVDQFVEHWDAIDECDTPAQPP</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MAIERGAKVRILRKESYWYREVGTVASVDKSEKTIYPVTVRFEKVNYSGINTNNFGVSELEEVEA</t>
+          <t>CFTDSQRPMSDSSIKEMPITYTYWVKDTINQRSWWLLSVY</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PLAAAHPDTNGTLPLIQDRHQKFCKTGWEIF</t>
+          <t>DCTRWIIGINGRICRD</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
+        <v>0.7097452282905579</v>
+      </c>
+      <c r="D22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MAKKLAITLTRSVIGRPEDQRITVRTLGLRKMHQTVVHNDNPAIRGMINKVAHLVKVKEIEEE</t>
+          <t>VRRFGWWWGFLRR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.9948221445083618</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MENEHNRCDEITAYRVEPCPWHRVGRCATCVNVTIILG</t>
+          <t>MPMKGDKYIMVSM</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.6956797242164612</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>QLGELIQQGGQKIVEKIQKIGQRIRDFFSNLRPRQEA</t>
+          <t>MKFFLLFLVVLPIMGVLGKKNGYAVDSKGKAPECFFSNYCNNECTKVHYAEKGYCCLLSCYCVGLNDDKKVMEISDTRKKICDTTIIN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KYYGNGVHCTKSGCSVNWGEAASAGIHRLANGGNGFW</t>
+          <t>LDSLSFSYNNFEEDD</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VDKWLPHPVSDEGQKRKDRDELRCIYQ</t>
+          <t>GLKDIFKAGLGSLVKGIAAHVAN</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.9669182896614075</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECTLH</t>
+          <t>RPHGAGEGIDRVPAGPSPSEVGLAIPSGK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MKLLLLLVISASMLLECLVNADGYIRKKDGCKVSCIIGNEGCRKECVAHGGSFGYCWTWGLACWCENLPDAVTWKSSTNTCGRKK</t>
+          <t>TAYFLLALAGRW</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LLFEQPGQLPASRYMWVPIGNHNREGDANPPMCFEDTEMF</t>
+          <t>GKWMSLLKKILK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.9926466941833496</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MEKREFNIIAETGIHARPATLLVQAASKFNSDINLEYKGKSVNLKSIMGVMSLGVGQGADVTISAEGADEADAIAAITDTMKKEGLAE</t>
+          <t>DLIWKLLSKAQEKFGKNKSRSFQLFGSPPGQR</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.9547946453094482</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GIGASILSAGKSALKGFAKGLAEHFAN</t>
+          <t>PKYTIVDKETCIACGACGAAAPDIYDYDEDGIAYVTLDDNQGIVEVPDILIDDMMDAFEGCPTESIKVADEPFDGDPNKFD</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CWLERPTFNNSRRNKTFLVIIIKC</t>
+          <t>QPFVPMYMMIFEWNDGAKGVKTELPHVCHMRTGQIDLEVSLECEETWYRMYCYGVMGNHPSNQWYSCFGRISAELQFLECV</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LVDHNQFWRGIMLQCHINWMWAMINIYCNWELGFCNWIYRCIDGVYGCAQAGDHKTMKTVSV</t>
+          <t>MSKKTFEELFTELQHKAANGDPATSRTAELVDKGVHAIGKKVVEEAAEVWMAAEYEGKDAAAEEISQLLYHVQVMMVARGISLDDVYAHL</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SHPNDQLNRNLMFYDCWVMHTLYNWRVSCNNSVRNFGKCIAVMDAHHRHGSLNIMHQVNYEKHWRLNFGREAIWHQRCNGFAPCMYEINQGDF</t>
+          <t>GWWRRTVAKARK</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.8914341926574707</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MQPRLLLLAAFLALLVLPEATKAEEGSLLDKMQGYVKEATKTAKDALSSVQESQVAQQARDWMTESFSSLKDYWSSFKGKFTDFWESATSPTQSPP</t>
+          <t>WRWACWGLKLLRYRRIY</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.7693189978599548</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RFIPPILRPPVRPPFRPPFRPPFRPPPIIRFFGG</t>
+          <t>KFFKKFFKKFFKKFFKKFFKKFFKKFFK</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
+        <v>0.9334748983383179</v>
+      </c>
+      <c r="D37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DNVIKLNIWRGDKHAFNYMAKEFECWSKA</t>
+          <t>GFCRCICTRGFCRCICTR</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.9471274018287659</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FLPVIAGVAAKFLPKIFCAITKKC</t>
+          <t>FIGTLIPLALGALTKLFK</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
+        <v>0.9710971117019653</v>
+      </c>
+      <c r="D39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CLDPCYDCMSAFELVLFGCFDAIMIVPDLHGGDSEWRKNACHCNR</t>
+          <t>LLKLFFPFLETGE</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
+        <v>0.39138463139534</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SGFVLKGYTKTSQ</t>
+          <t>EADEPLWLYKGDNIERAPTTADHPILPSIIDDVKLDPNRRYA</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FASLLGKALKALAKQ</t>
+          <t>EAAGERRQWCPSKQQVFRGSCSDDGGQKCLNDLLWTWNPSVRLSPIYCDCTPKRHNKRLCDCPSMICL</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GLMDVFKGAAKNLLASALDKIRCKVTKC</t>
+          <t>AHAHCGHVSLMWSWWQVASLRIRKTSTHKYYVKWIYTHDCKVRIFVLAQMF</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0.3621790111064911</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MGQEQDTPWILSTGHISTQKRQDGQQTPKLEHRNSTRLMGHCQKTMNQVVMPKQIVYWKQWLSLRNPILVFLKTRVLKRWRLFSKHE</t>
+          <t>GFRKIVQKIRDFLRNLV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.9819905161857605</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FIGINPFWPNMLPACPEWVWHMVGMMPKNACGGQEQLKIEQWHTFQLGDLPEFSAGAKCNVPWTPYNEAFIWPIQCR</t>
+          <t>GSHLVEKLYLVKERK</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.9179540872573853</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EYRVSVAGMWLKERGLIKQG</t>
+          <t>KWYFRVYYRGIYYRRYR</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
+        <v>0.7518415451049805</v>
+      </c>
+      <c r="D46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RADTQTYQPYNKDWIKEKIYVLLRRQAQQAGK</t>
+          <t>FDEMEECASHLPYA</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IFMKKPEVFRDDYYFADHECHMYIEKGKKRWSIHCYALLDFYNTAGDFPYNIKDQFLCKYMQWLSWHDWCHVQAMAS</t>
+          <t>RRTCHCRSRCLRRESNSGSCNINGRIFSLCCR</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.9249333143234253</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VIAYTGWTGTRKHGKRPVEMWVMCVWQHDILVYKSFGCDNWQLRQRLLHNNPWVKFVTLVTHTMRQ</t>
+          <t>FASGIAGMAGKLF</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.9890915155410767</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MHWWQDISGNQMGTKLGTNAGDMEQNPW</t>
+          <t>VDKKPRLPRKRPPRRIYNR</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.9629824161529541</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FLPVIAGLLSKLF</t>
+          <t>IESIAIRMCLWDQTADQFSCHYQYGTLQITYPMSKKGEMIQNIVKEWRFIKKDPAGE</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AYPGNGVHCGKYSCTVDKQTAIGNIGNNAA</t>
+          <t>RFHDDGPVGCNDQVNSNASHCHYY</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AMYNFDVGLTMSSEQWCQMARQWCQCTPQA</t>
+          <t>VNWKKSLGKSIKVVK</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.9843491911888123</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KNYGNGVHCTKKGCSVDWGYAWANIANNSVMNGLTGGNAGWHN</t>
+          <t>DIDITGCSACKYAAGQVCTIGCSAAGGFICGLLGITIPVAGLSSLGFFVITCTTSADYYSIPDSNAAK</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LVTLVFV</t>
+          <t>CFVWGIHKLQWYYYGQKMMEGIWEGLMENRVDFMHIKRGTINGKILGANIDSMQAADHWHPMVDLQLIRDSPDEPYSGKNLPRQHANHHWGD</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LHTQIECSFI</t>
+          <t>DSHAKRAAGYKR</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.7950899004936218</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MTDDKAGPSGLSLKEAEEIHSYLIDGTRVFGAMALVAHILSAIATPWLG</t>
+          <t>ESGINLQGDATLANN</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.6754236221313477</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GLFVGLAKVAAHNNPAIAEHFQA</t>
+          <t>HLTCRVQVEWPQGPYCEHDQTSNGVMCDGMERLVNIRHEMDFPEWRWKRSREHQCTAAYP</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MEQEQDTPWTQSTEHINIQKKGGGQQTQRPEHPNSTLLMDHYLKITSRAGMHKQIVYWKQWLSLKNPTQDSLKTRVLKRWKLSSKREWIS</t>
+          <t>THYEKDILIGEPPPILGYQYEINPCPGQSRLPDNSDNVE</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LSLKSNERFIYYFREASD</t>
+          <t>GAHDILKYGKPS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
+        <v>0.945794403553009</v>
+      </c>
+      <c r="D60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GFFAFIPKIISSPLFKTLLSAVGSALSSSGEQE</t>
+          <t>SDARIEGFSFDNCNIRCSEDYWNDECNKDCLRAGFQKGGQCGSPCIPCPVKCCCQK</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>YVSCLFRGARCRVYSGRSCCFGYYCRRDFPGSIFGTCSRRNF</t>
+          <t>MQALRVSQALIRSFSSTARNRFQNRVREKQKLFQEDNDIPLYLKGGIVDNILYRVTMTLCLGGTVYSLYSLGWASFPRN</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>THWEFVEFLSITWKAAGSTGIRDLYFVDARRIPNMIPGNYNGTEKKVMCGDTEAARKIMD</t>
+          <t>ALGCLQLFEHPRTQAFDFACCTSCTIGKIWYLCPVEPDQTLTTMICFPNKTPIDFYVFRGVYDRLNFAANMKYNRTTYALAAQPPHFCKPEDGWMPHFEG</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GLFSVVTGVLKAVGKNVAKNVGGSLLEQLKCKISGGC</t>
+          <t>ILPWKWPAWPWRR</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
+        <v>0.9240493774414062</v>
+      </c>
+      <c r="D64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SIVPIRCRSNRDCRRFCGFRGGRCTYARQCLCGY</t>
+          <t>MASYQVRLINKKQDIDTTIEIDEETTILDGAEENGIELPFSCHSGSCSSCVGKVVEGEVDQSDQIFLDDEQMGKGFALLCVTYPRSNCTIKTHQEPYLA</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MSSPTIPSRLYSLLFRRTSTFALTIAVGALFFERAFDQGADAIYEHINEGKLWKHIKHKYENKE</t>
+          <t>VSWKKSLGKIIKVVK</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.9773225784301758</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TCSYTMEA</t>
+          <t>NMGEFCWLLINHQKTQRSHVCEMPWDADDPFYWTLHEGVDNRDLEGPAVSNCIWDSTNQRQDDWNRYMCWVCFHCSEGSHQGIQPHMLK</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SLGPAIKATRQVCPKATRFVTVSCKKSDCQ</t>
+          <t>VIGMQEVQEIGNVITVPCVCSIDVHIWW</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INLKAIAALAKKLL</t>
+          <t>FPTPWPFEVQERMYLPSNVDPRPWECSHKRCMCGSMDLAAHIPTFFMNQVHCICRTINRFTS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RPRHVSHEQKCVTERFALFFYVNKEIKNRWGQWDVVPRIQKYIVVNIFYLPTRMDHILPTGSNWNEYKAWQTCCKVGVMPPHQIYGGASLCAQWCPA</t>
+          <t>MNLEPPKAEFRSATRVAGGPVTPRKGPPKFKQRQTRQFKSKPPKKGVQGFGDDIPGMEGLGTDITVICPWEAFNHLELHELAQYGII</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
+        <v>0.3981660008430481</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>QFYPCTAHGVVCELRQDRRIHWI</t>
+          <t>GFMKYIGPLIPHAVKAISDLI</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
+        <v>0.9740123152732849</v>
+      </c>
+      <c r="D71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>KGGSGVIHTISHEVIYNSWNFVFTCCS</t>
+          <t>RLWRRWRRWRR</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
+        <v>0.9707952737808228</v>
+      </c>
+      <c r="D72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DSHAKRHHGYKRKFHEKHHSHRGYR</t>
+          <t>FIFPKKNIINSLFGR</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
+        <v>0.8022847175598145</v>
+      </c>
+      <c r="D73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HYWGGLKSARLQQLCNNMFCNGSEPCVWKIGVGHFAEFERHQNKVDMGIMIYFYNYVC</t>
+          <t>GDRIQNKIWMANCMVGHLCETYMAYHCIEMPKIGDLSVRYIWVWLQHMHADMPYLMRKIQNLFGWTNQDLDFAQMIWHLHFPDCNHFYLMWR</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PLYNISQECHTYRWMFDTEMDLVKGPTEPGTGADIVGIETMYLLELNELWKEWVIYISRWKMHSFPPDFFG</t>
+          <t>HHLFGKVGREIERSAHKVGHKLEHVRHEVSKTAKKVDKVVGHIKTAKKVVAAAGAIAGVVAAA</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.6404576301574707</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MAAETLTELEAAIETVVSTFFTFAGREGRKGSLNINEFKELATQQLPHLLKDVGSLDEKMKTLDVNQDSELRFSEYWRLIGELAKEVRKEKALGIRKK</t>
+          <t>RSGTDFKLTISKLQK</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>0.7314558625221252</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FLSSIGKILGNLL</t>
+          <t>AFLGWIGAIVSTALPQWR</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
+        <v>0.6917285919189453</v>
+      </c>
+      <c r="D77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>AERVGAGAPVYL</t>
+          <t>CVTMTLLMHVQCSPQNCNHHGWCPRLNQQDAVGEGRERSMWEWRFVGSKDNFLWRGRQLGWFTDEFNWRPPNVIRMD</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ICSVKNDPVMGIWNTINSWCEDIPLPAQHMSMYSGTYALLVSMLERLCWPMWNMTYVWRCRVVSAAHTSDRSAFR</t>
+          <t>VKACAGPVDHPYCFCHERGYIWEAMLEECAAVCMIDGNHGRSSKVWCMLYNVGKFVTCHSFTQAKTCR</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MAANATTNPSQLLPLELVDKCIGSRIHIVMKSDKEIVGTLLGFDDFVNMVLEDVTEFEITPEGRRITKLDQILLNGNNITMLVPGGEGPEV</t>
+          <t>GDVPPGIRNTICRMQQGICRLFFCHSGTGQQHRQRCG</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.6894049644470215</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TQHPCQPCEDAVLWVDRDRKIVNREACDPHDLDIKTSTLEAGIESEMQAFFCGWFMMMPPRYPSMRIDHSWNVKYMTSCKRKGR</t>
+          <t>VLFRTHAMIYSDR</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>VLEFTQFFTEKYFVSMKCTCRYEARMPVFM</t>
+          <t>PALNCYWPLNDYGFYTTSGI</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>LLSLALAALPKLFCLIFKKC</t>
+          <t>FLPKWALKWAAK</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
+        <v>0.9356634020805359</v>
+      </c>
+      <c r="D83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FFPIIAGMAAKLIPSLFCKITKKC</t>
+          <t>KHHILRCMGNTGICRPSCRKTEQPYLYCLNYQSCCLQSYMRISISGREEKDDWSQQNRWPKIS</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RKSKEKIGKEFKRIVQRIKDFLRNLVPRTES</t>
+          <t>GKEHMEEIYRKKCCFI</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0.3627533316612244</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HRVTRHINRGPPWYNGWTAAHYRRVCTMVCTSTQHQAAELKTFVYGRCHVPDYYNSYTILQND</t>
+          <t>MATYKVTLISEAEGINETIDCDDDTYILDAAEEAGLDLPYSCRAGACSTCAGKITSGSIDQSDQSFLDDDQIEAGYVLTCVAYPTSDCTIQTHQEEGLY</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DTLACRQSHGSCSFVACRAPSVDIGTCRGGKLKCCKWAPSS</t>
+          <t>MSDENKSTPIVKASDITDKLKEDILTISKDALDKYQLERDIAGTVKKQLDVKYGNTWHVIVGKNFGSYVTHEKGHFVYFYIGPLAFLVFKTA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>STAERLGDLHIFIKWTEVLAWWWRPTYYHGMWQWFWFQEYLVSNAIKHMKFVCYLVTQWMNSKPIMINLTFVFERRMTKYSWVEIQHK</t>
+          <t>WGKCDLRKGLCRLADTISTCDVPCRAVDSKYHGGECLNVGGGQGICWCCRDYDAAKSGAEKESM</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GLRSKIWLWVLLMIWQESNKFKKM</t>
+          <t>CHHAMKWEMEDLPMEPCVYHVFIWGKQSMLHWCVFSYGVLEKFSANGTWGHGKRNIMVAVFDQTHGQEFKVFWIECFWDVPAFGAFFMISAF</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MNATIFALLLLLNLAMYNAAEQSSETDMDDTLLIPENYRKGCFKEGHSCPKTAPCCRPLVCKGPSPNTKKCTRP</t>
+          <t>FLPLVRGAAKLIPSVVCAISKRC</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.9878003597259521</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GLDSATSYMLHWFIPSLTYIDF</t>
+          <t>VLSAFHKVIKIIHHISHF</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>0.9643580317497253</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MYGHSTMFRCSLPDCFSKSSHSYCVNTYQEVCTMHGHIHSLPSVYDRLPVCAHKPHFSVHVQPFS</t>
+          <t>MVYVLIAYDISNDSKRLKAAQKLLQMGFARVQKSVYIAKGGRSLAKEAYRALQRLADSGKDKIMVMVIPGDSVRDAYGLGGSLEDGKRVVVV</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
+        <v>0.4245038032531738</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MRGSSNKKIDPRIHYLVPKHEVLNIDEAYKILKELGIRPEQLPWIRASDPVARSINAKPGDIIRIIRKSQLYGEVVSYRYVISG</t>
+          <t>GLTGGFYEPLVRRCSELMGR</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GILGNIVGMGKKVVCGLSGLC</t>
+          <t>YRQIVLWLPIKDYNVLNTPITCMAQLEFDLNFNWYRFAPYYISRGWNNRGMVVPCRWQANHFNKALCWFPRPAYHCMQWTPEEK</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>QLEGMFHPANLGISVYAYATLLCNWQSYQEHRQFAMPGELEAMYHPKKRPCETDNENHDDDGHCEMHGSPYLAFFSRIYKDIECTGSGWNPK</t>
+          <t>PVMTCQYTGQSWCWDFEDYPTAGQRCDMVRSHIMFEHWFASILWNSYQKIVQAIKHYYNFSKM</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GLLSKVLGVGKKVLCGVSGLC</t>
+          <t>GLWKGKLGLWKGKLGLWKGKL</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
+        <v>0.9868180751800537</v>
+      </c>
+      <c r="D96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DHYNCVSSGGQCLYSACPIFTKIQGTCYRGKAKCCK</t>
+          <t>FLPKTLRKFFCRIRGGRCAVLNCLGKEEQIGRCSNSGRKCCRKKK</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
+        <v>0.9560565948486328</v>
+      </c>
+      <c r="D97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WKSESVCTPGCVTGLLQTCFLQTITCNCKISK</t>
+          <t>GVFGLLAKAALKGASKLIPHLLPSRQQ</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
+        <v>0.9721613526344299</v>
+      </c>
+      <c r="D98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MSTSVKHREFVGEPMGDKEVTCIAGIGPTYGTKLTDAGFDKAYVLFGQYLLLKKDEDLFIEWLKETAGVTANHAKTAFNCLNEWADQFM</t>
+          <t>WKRRIKIWKKIR</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.9756124019622803</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MDIVSLAWAALMVVFTFSLSLVVWGRSGL</t>
+          <t>HAGAHAYNFGIGPCLNRRVPILLYISRFRGMQPICWFQWLMWDEVCEDRTVFIGDEPVGPYYRWCTLVEPHPMVTFQLPTPAYPNLEHMEKENGYG</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ENFFKEIERAGQRIRDAIISAAPAVETLAQAQKIIKGGD</t>
+          <t>EAPANAVAANDPTAVALKYNADATKSDRLAAARPGLPPAEQHCANCQFHLDDVAGATEEWHGCSLFPGKLINVDGWCASWTLKAG</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CQFHSWTDCGNDQRSMSWWGW</t>
+          <t>NKWKKILGKIIKVVK</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>0.9698330760002136</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MATQTVEDSSRSGPRSTTVGKLLKPLNSEYGKVAPGWGTTPLMGVAMALFAVFLSIILEIYNSSVLLDGISVN</t>
+          <t>FLPKLFAGIISKNF</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>0.9712907671928406</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GIFSNMYARTPAGYFRGPAGYAAN</t>
+          <t>KNLRRIIRKIIHIIKKYGPTILRIIRIIG</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.9295803904533386</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FIGLLISAGKAIHDLIRRRH</t>
+          <t>FFPLVKKLLKGLF</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
       <c r="C105" t="n">
+        <v>0.9598836898803711</v>
+      </c>
+      <c r="D105" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MRGNNPTLREYILDLHPEPTDLFCYEQLCDSSDEDEIGLDGPDGQAQPATANYYIVTCCYTCGTTVRLCINSTTTDVRTLQQLLMGTCTIVCPSCAQQ</t>
+          <t>RWRRPWRRRPIRPPFYR</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.9575124979019165</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CYTPIQHVEKARCACHFRTIQCCISTCQKYNPIETVYLIDLPMQVPGQKIHEYHHWDCQQWKEWCTCTLS</t>
+          <t>MEESWCAWFEKDLASWQMDAFCKP</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NGVYCNKQKCWVDWSRARSEIIDRGVKAYVNGFTKVLGGIGGR</t>
+          <t>MISAVILFLLLLVEQAAALGEPQLCYILDAVLFLYGIVLTLLYCRLKIQVRKAAIASREKADAVYTGLNTRSQETYETLKHEKPPQ</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LSWKICDKVCRVCRCFMDYAWWGHFHEECEGDHQLRLKEARCHEFNVFFDWPEFVRIIGCAGHYGSLRTRTAPLDWQSGWPHAFFWPCQDSFKYP</t>
+          <t>ETELAKKALKALKLKKLA</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>0.9516400694847107</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MASVNIKPLEDKILVQANEAETTTASGLVIPDTAKEKPQEGTVVAVGPGRWDEDGEKRIPLDVAEGDTVIYSKYGGTEIKYNGEEYLILSARDVLAVVSK</t>
+          <t>MSDFVNAISEAVKAGLSADWVTMGTSIADALAKGADFILGFFN</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MAEDIKTKIKNYKTAPFDSRFPNQNQTKNCWQNYLDFHRCEKAMTAKGGDVSVCEWYRRVYKSLCPVSWVSAWDDRIAEGTFPGKI</t>
+          <t>MYIIVVYDVSVERVNRVKKFLRQHLHWVQNSVFEGEVTLAEFERIKAGIGELIDGDEDSVVIYKLRSMPKREVMGVEKNPIEDII</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
       </c>
       <c r="C111" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MAAEDTPQDIADRERIFKRFDTNGDGKISSSELGDALKTLGSVTPDEVRRMMAEIDTDGDGFISFDEFTDFARANRGLVKDVSKIF</t>
+          <t>GLFPKFNKKKVKTGIFDIIKTVGKEAGMDVLRTGIDVIGCKIKGEC</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.8119199872016907</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GWLRKIGKKIERVGQHTRDATIQVLGIAQQAANVAATAR</t>
+          <t>KAKRRARNLNQKKRK</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
+        <v>0.9619926810264587</v>
+      </c>
+      <c r="D113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RNIDYWKNTWLYVNFLASVPDSKILLDPGNRH</t>
+          <t>FIGGLRRLFATVVGTVVCAINKLGGG</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>0.9558873176574707</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AALRGCWTKSIPPKPCPGKR</t>
+          <t>DHYICVRSGGQCLYSACPIYTKIQGTCYHGKAKCCK</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>1</v>
       </c>
       <c r="C115" t="n">
+        <v>0.9340424537658691</v>
+      </c>
+      <c r="D115" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HNDHPIYPPDWVQETNENDPLPNQEIGRMWVCTDAAERVAHKQHDALITGGWIWFTQDLYREAIPQMRTHCSMIETHF</t>
+          <t>LKKKKLLKCKLLLKCLKL</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>0.9553937911987305</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>GLMDTVKNVAKNLAGHMLDKLKCKITGC</t>
+          <t>RRVCDSAAGLCSMLFSCNTQCNSLGRNFTGGECSDARFPGLSVCYCCHNVESSAEMESM</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RTQACFWGLQAPLDSKHENSYFIQRKEISQWASCSLWECVAL</t>
+          <t>MGKNTSFVLDEHYSAFIDGEIAAGRYRSASEVIRSALRLLEDRETQLRALREALEAGERSGSSTPFDFDGFLGRKRADASRGR</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>VYVYPLIFNRKQLEHKWDNAMTKGTIKPLAAWWMIQCTKLLNLKGHLHMLDKADDVQASYATELWVVTIEITNKCCATQEEVKPGWHILPFSVHDRFAID</t>
+          <t>KWKLFKKIGIGKFLHSATTF</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.9891223311424255</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RTCENLADKYRGPCFSGCDTHCTTKENAVSGRCRDDFRCWCTKRC</t>
+          <t>IWGIGCNP</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0.2853578329086304</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MKLLLLLIVSASMLIESLVNADGYIKRRDGCKVACLVGNEGCDKECKAYGGSYGYCWTWGLACWCEGLPDDKTWKSETNTCGGKK</t>
+          <t>MTKLEDHLEGIINIFHQYSVRLGHYDTLIKRELKQLITKELPNTLKNTKDQGTIDKIFQNLDANQDEQVSFKEFVVLVTDVLITAHDNIHKE</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MELTPREKDKLLLFTAGLVAERRLAKGLKLNYPEAVALISCAIMEGAREGKTVAQLMSEGRTVLTAEQVMEGVPEMIKDVQVECTFPDGTKLVSIHSPIV</t>
+          <t>FPVTWGWWKWWKG</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.8863314986228943</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DTMKFIWKMQTMAVIWAYGRQTYRPEPQPPPSKLIYIVMHEGKSHL</t>
+          <t>QETAYFLLKLAGRWP</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
+        <v>0.3476954698562622</v>
+      </c>
+      <c r="D123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NILNTIINLAKKIL</t>
+          <t>EMSEMHGVYEPCAEYHCFLQKSRYVWTANMKHAFGGQLVLCDVSPDIHPVHFCCDNLHLVVPSRNWLM</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RMRAYCSHGHIRSRLRAGGWEPIAFTPPLIFKTKNVVWDWG</t>
+          <t>MGLPVTGVEELVELVSSDDPVADHQELPVELGERLFNIRKKRAPAKCTPYCYPTRDGVFCGVRCDFQHHHHHH</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GEILCNLCTGLINTLENLLTTKGADKVKDYISSLCNKASGFIATLCTKVLDFGIDKLIQLIEDKVDANAICAKIHAC</t>
+          <t>GIACGESCVFLGCFIPGCSCKSKVCYFN</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.8981650471687317</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ECNPAHKNIYGHIVMMV</t>
+          <t>RWKIFKKAAKKG</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.9888308644294739</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DAEFRHDSGYEVHHQKLVFFAEDVGSNKGAIIGLMVGGVV</t>
+          <t>MRDFKTYLSVAPVLSTLWFGSLAGLLIEINRFFPDALTFPFFSF</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MELTPREKDKLLLFTAALVAERRLARGLKLNYPESVALISAFIMEGARDGKSVASLMEEGRHVLTREQVMEGVPEMIPDIQVEATFPDGSKLVTVHNPII</t>
+          <t>IEWGNVSRQPKPKATYI</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.8364740610122681</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GFGCNGPWDEDDMQCHNHCKSIKGYKGGYCAKGGFVCKCY</t>
+          <t>KLKHVGLHVGKLK</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
+        <v>0.9426319599151611</v>
+      </c>
+      <c r="D130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CNKCKVGTCTVDQSCQLMSSDYGKNMAKTYMSMFYDMDDHKNQPPEVHAPWQWMDTEAH</t>
+          <t>KLAQKVKRVLR</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.9759175777435303</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RDSCLMVRRTQMCVYLERCRHAPYNSTIHMWTGNHCLYHADYEHDFTVDF</t>
+          <t>LVRRRSELMGRRNPVCPG</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>0.6247923374176025</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FALGAVTKRLPSLFCLITRKC</t>
+          <t>ATAGWTFGAGAALQIPFAMQMAY</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
+        <v>0.5219313502311707</v>
+      </c>
+      <c r="D133" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>QNNICKTTSKHFKGLCFADSKCRKVCIQEDKFEDGHCSKLQRKCLCTKNC</t>
+          <t>ILELAGNAARDNKKTRIIPRHLQL</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
+        <v>0.7785291075706482</v>
+      </c>
+      <c r="D134" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TKRCYKCNKKPHYWYTKGYICVHEHRFPFWPRWYCHTIFETSCHGFAYADTKCALNHQFKW</t>
+          <t>FWNWLSAWIKKTYEEIKKTYEEIKKTYEEIERDWEMV</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AAPANAVTADDPTAIALKYNQDATKSERVAAARPGLPPEEQHCANCQFMQANVGEGDWKGCQLFPGKLINVNGWCASWTLKAG</t>
+          <t>GLGSFFKNAIKIAGKVGSTIGKVADAIGNKE</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>0.9746495485305786</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RPRCWIKIKFRCKSLKF</t>
+          <t>IQAQPDKSESELVSQ</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0.2658958733081818</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MPQLDTSTWFITIISSMATLFILFQLKISSQTFPAPPSPKTMATEKTNNPWESKWTKIYLPLSLPPQ</t>
+          <t>MIPGGLSEAKPATPEIQEIVDKVKPQLEEKTNETYGKLEAVQYKTQVVAGTNYYIKVRAGDNKYMHLKVFKSLPGQNEDLVLTGYQVDKNKDDELTGF</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MKLVLAIVVILMLLSLSTGAEMSDNHASMSANALRDRLLGPKALLCGGTHARCNRDNDCCGSLCCFGTCISAFVPC</t>
+          <t>ATGQETAYFLLKLAGKA</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MTPFWRGVSLRPIGASCRDDSECITRLCRKRRCSLSVAQE</t>
+          <t>LKKISQRYQKFALPQYLKTVYQHQKAMKPWIQPKTKVIPYVRYL</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0.2743860185146332</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>QGPPISIDLSLELLRKMIEIEKQEKEKQQAANNRLLLDTI</t>
+          <t>GFLGPLLKLAAKGVAKVIPHLIPSRQQ</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
+        <v>0.9765676856040955</v>
+      </c>
+      <c r="D141" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>VEPPRCCMWCAAYMYQKLNRNSARTEGLIRQAWADCGVRGPMTLFTPSSWLPDVMQASFSSPKWVHE</t>
+          <t>FRFGSFLKKVWKSKLAKKLRSKGKQLLKDYANKVLNGPEEEAAAPAE</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.8853861689567566</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RICRCICGRRICRCICGR</t>
+          <t>FLPLLLAGLPLKLCFLFKKC</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
+        <v>0.9538864493370056</v>
+      </c>
+      <c r="D143" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>GPMPQMLLEFKFIPPGQMICVGGNDYRHSMNMWERVLRNTGC</t>
+          <t>KISKKIMRTFLRRILTGKK</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.916431725025177</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MANIKSAIKRVKTTEKAEARNISQKSAMRTAVKNAKTAVSNNADNKNELVSLAVKLVDKAAQSNLIHSNKADRIKSQLMTANK</t>
+          <t>QRFIHPTYRPPPQPRRPVIMRA</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>0.8629570007324219</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MVPPVQVSPLIKLGRYSALFLGVAYGATRYNYLKPRAEEERRIAAEEKKKQDELKRIARELAEDDSILK</t>
+          <t>CVDIHVWDGVC</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
+        <v>0.2964758574962616</v>
+      </c>
+      <c r="D146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FRGLAKLLKIGLKSFARVLKKVLPKAAKAGKALAKSMADENAIRQQNQ</t>
+          <t>AKRHHGLNCAKFH</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0.3762761950492859</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>EQVLMQYHRVNAIWMHDQSQKICKWS</t>
+          <t>FLPAIFRMAAKVVPTIICSITKKC</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.9298633933067322</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GILDTLKNLAKTAGKGALQGLVKMASCKLSGQC</t>
+          <t>KLKSLLKTLSKAKKKLLKTALKALSK</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
+        <v>0.9743803739547729</v>
+      </c>
+      <c r="D149" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VIPFVASVAAEMQHVYCAASRKC</t>
+          <t>DWVSDMKKMQKDRKWIKVKLVICWINNPGSFDRKDELFENIHEQNLMHA</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MSHKQIYYSDKYDDEEFEYRHVMLPKDIAKLVPKTHLMSESEWRNLGVQQSQGWVHYMIHEPEPHILLFRRPLPKKPKK</t>
+          <t>QNPRGRKCEDPNGVDQKAKCYIYCNEQGFLGGSCQGYTNHYMCECYVG</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>GIEATRGHHQCWKARDRKVDQNDCSGRQAMGETFWPTVMYLHSGKSPREEQN</t>
+          <t>MIMIKYMSVFEDQNGETEKDMHDDDEGYQFKYDSYNAECAEGDMDYQNKEWMDKDRNSIKFAPIACKNAVDPEFQVYIPTFNKDYSSSWGGTNHQD</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D152" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>GILDTIKNAAKTVAVGLLEKIKCKMTGC</t>
+          <t>DRPKADRPKPDRPKADCSTIQGVCKDSCLSTEFSIGALGCSAESSTVCCVTKP</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0.2909815311431885</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>MVDMKASMFLTFAGLVLLFVVCYASESEEKEFPKEMLSSIFAVDNDFKQEERDCAGYMRECKEKLCCSGYVCSSRWKWCVLPAPWRR</t>
+          <t>MLKLEMMLVVLLILPLFYFDAGGQVVQRDWRSDGLARYLQRGDRDVRECNINTPGSSWGKCCLTRMCGPMCCARSGCTCVYHWRRGHGCSCPG</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
       </c>
       <c r="C154" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D154" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ILGPVLGLVGNALGGLIKKI</t>
+          <t>AIHKLAHKLLKKTLRAVKKLAN</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
+        <v>0.9414383172988892</v>
+      </c>
+      <c r="D155" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ASYKVKLITPEGAVEFDCPDDVYILDQAEEMGHDLPYSCRAGSCSSCAGKVTAGNVDQSDGNFLDDDQMADGFVLTCVAYPQSDVTIETHKEEELTA</t>
+          <t>MIKVEIKPSQAQFTTRSGVSRQGKPYSLNEQLCYVDLGNEYPVLVKITLDEGQPAYAPGLYTVHLSSFKVGQFGSLMIDRLRLVPAK</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>KVPIGAIKKGGKIIKKGLGVIGAAGTAHEVYSHVKNRH</t>
+          <t>FLPLLAGLCKITRKCAANFLPKIF</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
+        <v>0.9355016946792603</v>
+      </c>
+      <c r="D157" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DTISYEHVQLYGGNVMKWTGAMCYNAWFIPESYYPTGYTGH</t>
+          <t>QCVGTITLDQSDDLFDLNCNELQSVR</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D158" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CGFRFCTITAHQHLVVYIIDVMNTIFLNGGIFVSIAKHRDHAHFPSEL</t>
+          <t>FLGGVFKKASKVFGAVFGKV</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.9782463312149048</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>KSCCPNTTGRNIYNTCRLGGGSRERCASLSGCKIISASTCPSDYPK</t>
+          <t>RIGSILGRLAKGLPTLKSWIKNR</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
+        <v>0.951661229133606</v>
+      </c>
+      <c r="D160" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IFNFEQYPHTQPAKFIADQ</t>
+          <t>MWVTKAYMVQQDFLRLKIPYHWIE</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D161" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>QTQDP</t>
+          <t>GGKPDLRPCHPPCHYIPRPKPR</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>0.6638135313987732</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>LKWRGPREQLNVTKQHNDIFCPSWNSHISMSFHGIVHNMHRPSNDYYCLVGVMRRKSHDTHTNRCNVRFHRASGCFWKNW</t>
+          <t>FFGHLFKLATKIIPSFFRRKNQ</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>0.9748650789260864</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>QKLCERSSGTWSGVCGNNNACKNQCINLEGARHGSCNYIFPYHRCICYFPC</t>
+          <t>ACWAAGIKQEF</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0.4337648451328278</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MTATHIATYYRPWMKYWWNKFAIAHQRHFHCVLAHLMPDHVIEHSWSKTPIRLNYFPAECSNISWAYYSGIHPGDQSLRYMELARFFHKHWR</t>
+          <t>GILLDKLKNFAKTAGKGVLQSLLNTASCKLSGQC</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>0.9631571173667908</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GLLDTIKNMALNAAKSAGVSVLNTLSCKLSKTC</t>
+          <t>KKKPRPPYLPRPRPP</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
+        <v>0.9539903402328491</v>
+      </c>
+      <c r="D166" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>VLPLISMALGKLL</t>
+          <t>RRWCFRVCYKGFCRYKCR</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
+        <v>0.749765932559967</v>
+      </c>
+      <c r="D167" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>QRPYTQPLIYYPPPPTPPRIYRA</t>
+          <t>AKKAQKSGAQTIVKIFAKGM</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
+        <v>0.9352647066116333</v>
+      </c>
+      <c r="D168" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>IDWKKLLDAAKQIL</t>
+          <t>ATYKVKLVTPDGPVEFNCPDDVYILDQAEEEGHELPYSCRAGSCSSCAGKVSAGTVDQSDGNFLDDDQIADGFVLTCVAYPQSDVTIETHKEEDLTG</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MEARDILKRPVITEKSSEAMAEDKYTFDVDTRVNKTQVKMAVEEIFNVKVASVNIMNYKPKKKRMGRYQGYTNKRRKAIVTLKEGSIDLFN</t>
+          <t>WRSFMVNLGNHMPHGTWRGHRTCEPMMSKVA</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D170" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CAWYNISCRLGNKGAYCTLTVECMPSCN</t>
+          <t>SVAMTKAEPTRIYNNQTLFDHENWYEKRPYSDMHWMSSWHFVLFIRGKHKF</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>YTDMIGCHPHCFCNRKHYNDSYSDVTDTKKVELHKNWPARWTLNESEVPHSYTFMCYNEACGYFNAHWRWVWDVRCILSHA</t>
+          <t>IEVLLGSDDGGLAFVPGNFSISAGEKITFKNNAGFPHNVVFDEDEIPAGVDASKISMPEEDLLNAPGETYSVTLSEKGTYSFYCSPHQGAGMVGKVTVN</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
       </c>
       <c r="C172" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D172" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IEVLLGGDDGSLAFIPNDFSVAAGEKIVFKNNAGFPHNVVFDEDEIPSGVDAGKISMNEEDLLNAPGEVYKVNLTEKGSYSFYCSPHQGAGMVGKVTVN</t>
+          <t>PMARNKILGKILRKIAAFK</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>0.9435805082321167</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GICACRRRFCPNSERFSGYCRVNGARYVRCCSRR</t>
+          <t>INVLGILGLLGKALSHL</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
+        <v>0.971639096736908</v>
+      </c>
+      <c r="D174" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>GLFPKFNKKKVKTGIFDIIKTVGKEAGMDVLRTGIDVIGCKIKGEC</t>
+          <t>RADTQTYQPYNKDWIKEKIYVLLRRQAQQAGK</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LTCVTKDTIFGITTQNCPAGQNLCFIRRHYINHRYTEITRGCTATCPKPTNVRETIHCCNTDKCNE</t>
+          <t>EEYTKKIEEYTKKIEEYTKKIEEYTKKIEEYTKKI</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D176" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>VWRIWGEPHRNQMPTDMPERCSQQFEKIFAEDDIGDVCARQAHCTYDSKCHQGWPSFWQMAGK</t>
+          <t>TYICEVEDQKEE</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D177" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>CHWVYNCLYINKCASHYLSMDHVLASGWLRVPIMDIKPVDESVMHFA</t>
+          <t>WQKPHYEMVPKQYIHMMVGIHNVFIHSAAL</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
       </c>
       <c r="C178" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D178" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>DARVGEICRNTFSYTITIVDARDVSYKNTPPRARYQEQLPSFMHYHECIMRDNDVNMVGACPIISFYRWFPGIMRMH</t>
+          <t>MAEGNTLISVDYEIFGKVQGVFFRKHTQAEGKKLGLVGWVQNTDRGTVQGQLQGPISKVRHMQEWLETRGSPKSHIDKANFNNEKVILKLDYSDFQIVK</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D179" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>LMVDKCHNHAHPQFMLNQNEHYQKPG</t>
+          <t>SVDMVMKGLKIWPL</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
+        <v>0.3154551386833191</v>
+      </c>
+      <c r="D180" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ATAVDFGPHGLLPIRPIRIRPLCGKDKS</t>
+          <t>FLSTLLNVASNVVPTLICKITKKC</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
+        <v>0.8647174835205078</v>
+      </c>
+      <c r="D181" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>GLISGILGVGKMLVCGLSGLC</t>
+          <t>GLLDFLKAAGKGLVSNLLEK</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="n">
+        <v>0.9788302183151245</v>
+      </c>
+      <c r="D182" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ENLLYTNKKCTWNQFSFGRVSWFCSKMYDGCRHWMEILWQEVPYSCSISKNIESHQWTDMVVEWGVWHPKEIANACWFVDGYCQHFCLVHKCSDSPLI</t>
+          <t>PGNAGYRLQMWMELIRARR</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D183" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>EAQYCNIACDSIICDTEIYNDDISVTIRSEWLARS</t>
+          <t>TDIQTKELQKQITKIQNFRV</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.8253269791603088</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>WLCGWLCLWQAEYMFLTINGDAGYQADHAFYRQFCEKKPYVFVTYYYWSVRTVLQHYIMLQFIWDLNQTWEQWVHNLCQT</t>
+          <t>GNPKVAHCASQIGRSTAWGAVSGA</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.9345386624336243</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>IEVLLGSDDGGLAFVPGNFSVSAGEKITFKNNAGFPHNVVFDEDEIPAGVDASKISMSEEDLLNGPGETYSVTLSEKGTYTFYCAPHQGAGMVGKVTVN</t>
+          <t>RDCKSDSHKFHGACFSDTNCANVCQTEGFTRGKCDGIHCHCIKDC</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D186" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>TYTETFDDCGLFRALLMTPTAPLDACMFMFRVG</t>
+          <t>DANQDRGEIETNNFDTAMAFITWLQPHIITCSADEERQWTCQQNSILPIWAQGHYYA</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D187" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GIHDILKYGKPS</t>
+          <t>KETWWETWWTEWSQPKKKRKV</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MAEPGIDKLFGMVDSKYRLTVVVAKRAQQLLRHGFKNTVLEPEERPKMQTLEGLFDDPNAVTWAMKELLTGRLVFGENLVPEDRLQKEMERLYPVEREE</t>
+          <t>FFHHIFDPQIKSGLLVSMYD</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.8393058180809021</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GLVSSIGRALGGLLADVVKSKGQPA</t>
+          <t>GNFFKDLEKMGQRVRDAVISAAPAVDTLAKAKALGQ</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
+        <v>0.6373338103294373</v>
+      </c>
+      <c r="D190" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>QGCKGPYTRPILRPYVRPVVSYNACTLSCRGITTTQARSCCTRLGRCCHVAKGYS</t>
+          <t>IGAHWINLTMSYPHQGAHYYFVYHKILTWSAQYFKTTARYTWMGMDIKCYGHEIFTRVIMWDGQDRSKEMW</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CYFRNCPIG</t>
+          <t>NYISFFRKCKNSQST</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>0.9662312269210815</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FILPLIASFLSKFL</t>
+          <t>KWKSFIKKSTSKFLHSAKKF</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
+        <v>0.9804309010505676</v>
+      </c>
+      <c r="D193" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CYKYAGFIDYFYDELEWPTKGNRESWNSLLRKHVTDHFYKIV</t>
+          <t>DKPKKKPPPPAGPPPPPPPPPGPPPPGP</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>0.8357058167457581</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>VTSYTLNEIVPLKDVVPEWVRIGFSATTGAEFAAHEVLSWSFHSELEETSASKQ</t>
+          <t>PFWRIRIRRPFWRIRIRR</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>0.9647850394248962</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>YNFIGKLHPKPL</t>
+          <t>DPAMYNKLHMNQ</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0.3581294417381287</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>GNRPVYIPPPRPPHPRL</t>
+          <t>CCFLNITNSHVSILQERPPLENRVLTGWGL</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>IFNSIYHRKCVVKNRCETVSGHKTCKDLTCCRAVIFRHERPEVCRPST</t>
+          <t>KSCCRSTTARTARVPCAKKSNIYNGCRVPGGCKIQEAKKCEPPYD</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0.2948808073997498</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MVNMKASMFLTFAGLVLLFVVCYASESEEKEFPKEMLSSIFAVGNDFKQEERDCAGYMRECKEKLCCSGYVCSSRWKWCVLPAPWRR</t>
+          <t>GLLSAAKAAGKLL</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>0.9973318576812744</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HVSHGHWKALVRQPWAWIPICSSWTPNQKGEVMCTFLWRNFRINFKLNIEKCGTPHNTREEGMSWTRTGQAEYEWC</t>
+          <t>FWGHIWNAVKRVGANALHGAVTGALS</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>0.9583836197853088</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SALVGCWTKSYPPNPCFGRG</t>
+          <t>AARIILRWFRR</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
+        <v>0.9717934727668762</v>
+      </c>
+      <c r="D201" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MKTLLLTLVVVTIVCLDLGYTRICFNHQSSQPQTTKTCSPGESSCYHKQWSDFRGTIIERGCGCPTVKPGINLSCCESEVCNN</t>
+          <t>GIINTLQKYYCRVRGGRCAVLSCLPKEEQIGKCSTRGRKCCRRKKGGGGMGIGDPVTCLKSGAICHPVFCPRRYKQIGTCGLPGTKCCKKP</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>0.8033481240272522</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RWKFFKKIERVGQNVRDGLIKAGPAIQVLGAAKAL</t>
+          <t>SSPLPHKWSLHVGLIVWAVAWCC</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
+        <v>0.8249756097793579</v>
+      </c>
+      <c r="D203" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>GIMSIVKDVAKNAAKEAAKGALSTLSCKLAKTC</t>
+          <t>GANALKKYFTILKKFFKLAW</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="n">
+        <v>0.9411826133728027</v>
+      </c>
+      <c r="D204" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>GLWETIKNFGKKFTLNILHKLKCKIGGGC</t>
+          <t>GMATAAGTTLGKLAKFVIGAV</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
+        <v>0.956078052520752</v>
+      </c>
+      <c r="D205" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>HLWMDIND</t>
+          <t>MWKEFHNVLSSGQLLADKRWARWYNRW</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
+        <v>0.4560487568378448</v>
+      </c>
+      <c r="D206" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>FNLSCRKRWWDRWSCVNADECNEQ</t>
+          <t>KGYNVKKHVVTQNIQMPRV</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
+        <v>0.3400678634643555</v>
+      </c>
+      <c r="D207" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RLHQIQSTMQYWNGQEGFDGK</t>
+          <t>YCYKLQCQYDYVTDHIKECKPGN</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D208" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>GLFLDTLKGLAGKLLQGLKCIKAGCKP</t>
+          <t>KLKKLCCLLLLKKLKKL</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
+        <v>0.9561008214950562</v>
+      </c>
+      <c r="D209" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CANSCSYGPLTWSCDGNTK</t>
+          <t>INLKILARLAKKIL</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
+        <v>0.973501980304718</v>
+      </c>
+      <c r="D210" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>GAILCNLCKDTVKLVENLLTVDGAQAVRQYIDNLCGKASGFLGTLCEKILSFGVDELVKLIENHVDPVVVCEKIHAC</t>
+          <t>FLSLIPHIVSGVAALAKHLG</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>0.9754084348678589</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>DSHAKRHHGYKRKFHEKHHSHRGYRSNYLYDN</t>
+          <t>KKKKLVAATYVLF</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0.2746391296386719</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>VKYVTETQHFNMWIAPWMAPRQTWWTFGFIGMRVSVMWTAYVPQWDPWPYADTLLCPN</t>
+          <t>FTILKKLKSFIK</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>0.9482971429824829</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>GWLKKIGKKIERVGQHTRDATIQTIAVAQQAANVAATAR</t>
+          <t>TPFKISIHLGGY</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
+        <v>0.5549733638763428</v>
+      </c>
+      <c r="D214" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>GFKGAFKNVMFGIAKSAGKSALNALACKIDKSC</t>
+          <t>MAGNSSNFIHKIKQIFTHR</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
+        <v>0.8586300611495972</v>
+      </c>
+      <c r="D215" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>NLSIGWGPIPDGIPVGFFQKNRHMPQSTCWFHSDRISYNFIRRKGWWNNMARPTHHDKPHVCFAFFRAVGINSNRSKMTMCPEGANGEEQPPTGLY</t>
+          <t>TFMIGWAEPWHRPKRYQGFTRNDPWSIFPDFDNPLPFYWFTFLNQIGSWCYSRMMVRCEHMVLRPFESCWTCSDGRYMWPIQWAVTRSWT</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D216" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>KYYGNGVSCNKNGCTVDWSKAIGIIGNNAAANLTTGGAAGWNKG</t>
+          <t>KWKLFKKIGKVLKKL</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
+        <v>0.9901841282844543</v>
+      </c>
+      <c r="D217" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>FEPTTNEYGGHWARLFQKADLVARRSQWNRLHTYSFWGDPEWWEEECRQ</t>
+          <t>GQDGYHWLIGYWTVAPVETWFMMRQWQNVGPTLTQQMDAYCLWIFCTRDTPMYTMQTKFAVWEWHQESCPMPG</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D218" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>GFVDFLKKVAGTIANVVT</t>
+          <t>PNDPDSPCVYRMPNARGCSI</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0.265288919210434</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RYGGSHVRHKRKFQHQFRDVDQLIWPKRKALHYCFYLEIECGTNAQM</t>
+          <t>TSVRQRWRWRQRVRTS</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>0.8983431458473206</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RNCESLSHRFKGPCTRDSN</t>
+          <t>KKLFKKILKYLAGPAVAVVGQATQIAKKDEL</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
+        <v>0.8696986436843872</v>
+      </c>
+      <c r="D221" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>EAWRSYWHRLMVKAEIYTKYC</t>
+          <t>IHKFWRCRRRFCRWFKHI</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>0.9403725862503052</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>QVNFSPNW</t>
+          <t>FLWIKLGKLAGAVLKLILGLKKVV</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>0.9716057777404785</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>LAWHKMVQFTGIWINPSRCGNQSPGFQR</t>
+          <t>TLVGVVAKLVATKIGSSPRA</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>0.9010694622993469</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>EHYCKRQYIGQKWIVSFQKPSWFYM</t>
+          <t>FRLKKRRWKYRVPP</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>0.9060699939727783</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ILQKAVLDCLKAAGSSLSKAAITAIYNKIT</t>
+          <t>RGGLCYCRGRFCVCVGR</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="n">
+        <v>0.9485602974891663</v>
+      </c>
+      <c r="D226" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MSKAHPPELKKFMDKKLSLKLNGGRHVQGILRGFDPFMNLVIDECVEMATSGQQNNIGMVVIRGNSIIMLEALERV</t>
+          <t>MKTLLLTLVVVTIVCLDLGYTRICFNHQSSQPQTTKTCSPGESSCYHKQWSDFRGTIIERGCGCPTVKPGIKLSCCESEVCNN</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D227" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>FNHVKNRKMNAKQKMMVQWYQLPVNPSQRDILYNVKNYRWRLMTYEPWEKGSTF</t>
+          <t>CKIPFEIMDLEKRHV</t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
       </c>
       <c r="C228" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D228" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>FLPLLLAGLPLKLCFLFKKC</t>
+          <t>VNWKKILAKIIKVAK</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>1</v>
       </c>
       <c r="C229" t="n">
+        <v>0.9766920804977417</v>
+      </c>
+      <c r="D229" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>FYWWYYVQEQDTPDNWMKHRKCNDT</t>
+          <t>DLWNSIKDMAAAAGRAALNAVTGMVNQ</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>0.8908496499061584</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RLGNFFRKAKKKIGRGLKKIGQKIKDFLGNLVPRTES</t>
+          <t>SDGTSGYGITEATKRCFTPAPCTRGLFYCQTFCSSLSAVLIGVCESGICCCILNQ</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0.2836929559707642</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>CWQDDYPDQHDDSEQQFIGMEWIHQDMLLLYCHPVCNVRTITDVNKDMFGTKGDVQCPGCAMYIYRMMDYWEWSTGQKVNGKDRLVNHRLAQARYCFYW</t>
+          <t>GAALAGLAKILCLWAKEFTGAFKKLNKKFAMKKK</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>0.9025347828865051</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RIMIWYASVPQPIFQRDRFQCQDSQVQKVMPHLFCFFMYMSKCPALSPAEQFYYKKRLRFARFPQKAYSQYNESWTMRTTREASCF</t>
+          <t>GIPVALKLLHCCDRLALPARCWKITEEMTTRHWQWSAVEAMYVQCCMPIHEKRVKVDYYRKYFTIIMLEFINFIDGVLFDQYTIH</t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>0</v>
       </c>
       <c r="C233" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D233" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>DHYICAKKGGTCNFSPCPLFNRIEGTCYSGKAKCCIR</t>
+          <t>CPAIQRCCQQLRNIQPPCRCCQ</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
+        <v>0.6588708758354187</v>
+      </c>
+      <c r="D234" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>MSAAAQLKSVDYEVFGRVQGVCFRMYTEGEAKKIGVVGWVKNTSKGTVTGQVQGPEEKVNSMKSWLSKVGSPSSRIDRTNFSNEKSISKLEYSNFSIRY</t>
+          <t>MRRMALVHYKMHE</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>0</v>
       </c>
       <c r="C235" t="n">
+        <v>0.4455593228340149</v>
+      </c>
+      <c r="D235" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>YLDHGLGAPAPYVDPLEPKREVCELNPDCDELADQMGFQEAYRRFYGTT</t>
+          <t>GLFSKFNKKKIKSGLFKIIKTAGKEAGLEALRTGIDVIGCKIKGEC</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
+        <v>0.9382588267326355</v>
+      </c>
+      <c r="D236" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>FLPIIAGAAAKVVQKIFCAISKKC</t>
+          <t>YPNVDLSNMGCEECTLKKNNVFSRDRPIYQCMGCCFSRAFPTPLKAMKTMTIPKNITSEATCCVAKHSYETEVAGIRVRNHTDCHCSTCYFHKS</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MAAKILALWLLLAGTVFPQGCCQHWSYGLSPGGKRDLDNFSDTLGNMVEEFPRVEAPCSVFGCAEESPFAKMYRVKGLLASVAERENGHRTFKK</t>
+          <t>DLRFLYPRGKLPVPTLPPFNPKPIYIDMGNRY</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>0.9120415449142456</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>RYHMQCGYRGTFCTPGKCPYGNAYLGLCRPKYSCCRWL</t>
+          <t>DKGRRRSKFVLHRRQCAN</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
+        <v>0.8998032808303833</v>
+      </c>
+      <c r="D239" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>NPVSCVRNKGICVPIRCPGSMKQIGTCVGRAVKCCRKK</t>
+          <t>SWKSFLKTFSSAKSTVLHTALKAISS</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="n">
+        <v>0.9787487387657166</v>
+      </c>
+      <c r="D240" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SWFSRTVHNVGNAVRKGIHAGQGVCSGLGL</t>
+          <t>GERVWDRGNVTLLCDCPNGP</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ITSISLCTPGCKTGALMGCNMKTATCHCSIHVSK</t>
+          <t>FKRIVQRAKDFLR</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
+        <v>0.9651318788528442</v>
+      </c>
+      <c r="D242" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>GWVQYGMQLSDWVIQCKFSCHDICFLLRGHFQRDMWIGSATMIDQMNHSCVQCVWYLGHPVEPDREMLWCIRKMMFTRAYWRGTSAINQFWYG</t>
+          <t>MCDRKAVIKNADMSEEMQQDSVECATQALEKYNIEKDIAAHIKKEFDKKYNPTWHCIVGRNFGSYVTHETKHFIYFYLGQVAILLFKSG</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D243" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>GLNTLKKVFQGLHEAIKLINNHVQ</t>
+          <t>GGNDFMRF</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>YRTTCCMGCYYIHSSDTSRNQTRYKHSMDCTSGAEYFMARRIGVEHMSATIVI</t>
+          <t>GIMSSLMKKLKKHIAK</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>0.9699503779411316</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>HFLGGTLVNLAKKIL</t>
+          <t>HSDGIFTDSYSRYRKQMAVKKYLAAVLGRRYRQRFRNK</t>
         </is>
       </c>
       <c r="B246" t="n">
         <v>1</v>
       </c>
       <c r="C246" t="n">
+        <v>0.6642420291900635</v>
+      </c>
+      <c r="D246" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>GRGREFMSNLKEKLSGVKEKMKNS</t>
+          <t>RLLRRLRRLLR</t>
         </is>
       </c>
       <c r="B247" t="n">
         <v>1</v>
       </c>
       <c r="C247" t="n">
+        <v>0.8908155560493469</v>
+      </c>
+      <c r="D247" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>YYPFPHKCHKFARMSELPPCWTDLMSEQWQDWVTQHCYCLHGCYCNEKMHMQQTNKRHCLLHAVHLVHQWFKGNQSAHPAFYDLSPPRFGHRLFDSQ</t>
+          <t>GCRALCYKQRCVTYCRGA</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>0.9690924882888794</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>GILDSFKGVAKGVAKDLAGKLLDKLKCKITGC</t>
+          <t>VCGETCFGGTCNTPGCSCTWPICTRDGLP</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ADAAAGGKVFNANCAACHASGGGQINGAKTLKKNALTANGKDTVEAIVAQVTNGKGAMPAFKGRLSDDQIQSVALYVLDKAEKGW</t>
+          <t>KAAFCINGLGESFWYHMKDLTPDYTCIPYMWERFVLKMTCQAFKGIPLWDRMTYFQ</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ATWWIIWLSTVVFMDQPSLVDFMQRGWKFLYWCMVCVPEK</t>
+          <t>LLNSGVKLGTKLLSGLLN</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>0.9814814329147339</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>TCVGGTCNTPGCSCSWPVCTRNGLPICGE</t>
+          <t>GLMDTIKGVAKNVAASLLEKLKCKVTGC</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>1</v>
       </c>
       <c r="C252" t="n">
+        <v>0.9588411450386047</v>
+      </c>
+      <c r="D252" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>DRTNTENMVRFRGKMSNMDTFMGRIHKSMNVNVLYRLD</t>
+          <t>MKADIHPTYEAIEATCSCGNVIKTRSTLCKPIHLDVCSECHPFYTGKQKVLDTGGRIDRFKQRFGVFGATK</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D253" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FLGLIFHGLVHAGKLIHGLIHRNRG</t>
+          <t>MDVFMKGLSKAKEGVVAAAEKTKQGVAEAAGKTKEGVLYVGSKTKEGVVHGVATVAEKTKEQVTNVGGAVVTGVTAVAQKTVEGAGSIAAATGFV</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0.456762820482254</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SGRVCGWSQKGGPVFWASQKNMYSISFISQWKHYLCGANCPVFG</t>
+          <t>KWAVRIIRKFIKGFIS</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
+        <v>0.8927347660064697</v>
+      </c>
+      <c r="D255" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>GLPVCGETCFGGTCNTPGCSCSSWPICTRN</t>
+          <t>KSIFERDRRDWLVIPDAIAAYIYETVNKMSPRVGQFLADAAQTPVVVGTRTFLIRETSKLTLLAEQLMEKIKNLWYTKVLGY</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>VCGETCFGGTCNTPGCSCTWPICTRDGLP</t>
+          <t>GLFDKWAWWRWRR</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>1</v>
       </c>
       <c r="C257" t="n">
+        <v>0.9868221282958984</v>
+      </c>
+      <c r="D257" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GLLGPLLKIAAKVGSNLL</t>
+          <t>MGSELESAMETLINVFHAHSGQEGDKYKLSKKELKDLLQTELSGFLDVQKDADAVDKVMKELDENGDGEVDFKEYVVLVAALTVACNNFFWETS</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CRFCCRCCPRMRGCGLCCRF</t>
+          <t>LVQRFHAYLHKFREAFMNVGAAAAVEGTKAA</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>GIKCRFCCGCCTPGICGVCCRF</t>
+          <t>IITKTMNSKETIYLDNPAVSPSIDQNLVDIHLGHSFVQGVMSFCYDCGKACFRRGKNLARCQKFVCRCTISKLR</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>NKYDNKCGSCTVHDNNAYHQFFPNYVWPKK</t>
+          <t>CSQFEELYASVVFTALGRTTNRL</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>0</v>
       </c>
       <c r="C261" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D261" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CADHNTWTRL</t>
+          <t>LSADKDWGHPDRTTK</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>0</v>
       </c>
       <c r="C262" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D262" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>HWPKEGSFE</t>
+          <t>GSNIEVMLGLPNSDVK</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
+        <v>0.3433625996112823</v>
+      </c>
+      <c r="D263" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CLAHFMPLGIKM</t>
+          <t>KKAAARAAAAARAAWAARAAAKKKK</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
+        <v>0.8987146615982056</v>
+      </c>
+      <c r="D264" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>IIGLVSKGTCVLVKTVCKKVLKQG</t>
+          <t>MFLYVIAYDIPDDRRRKKMADLLEGYGQRVQYSVFECTLSKSKFNELQKRLRKIYQSEEDSLRFYPLSGHTLTQVDIWGEPPLTKPPGSVIV</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ETYSVTLVNEEKNINAVIKCPDDQFILDAAEEQGIELPYSCRAGACSTCAGKVLSGTIDQSEQSFLDDDQMGAGFLLTCVAYPTSDCKVQTHAEDDLY</t>
+          <t>GRFLYQLWWEDINKPYHELNEDELVEAMIAPTGVDLFDEFANSAPLHQWDKAHHINKIIE</t>
         </is>
       </c>
       <c r="B266" t="n">
         <v>0</v>
       </c>
       <c r="C266" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D266" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>KFKPEPVQCPVYSHWPPRGKVDTEFVLPPKISSGWEVQGTHFIENKTKYPPCSHCTPHWKEFKYHQHGIDFFNTWDCHYGCEFMYDCYWI</t>
+          <t>HLIHRLHTYWHKPWHYLGKL</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>0.7993855476379395</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>QGVRSYLSCWGNRGICLLNRCPGRMRQIGTCLAPRVKCCR</t>
+          <t>GFGSLLGKALKIGTNLL</t>
         </is>
       </c>
       <c r="B268" t="n">
         <v>1</v>
       </c>
       <c r="C268" t="n">
+        <v>0.9847630858421326</v>
+      </c>
+      <c r="D268" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PPCKKETSASCSRNDWTVGLMRWLCTDIVSNNSDAESECRKVYWWMRCWDKSTNHPM</t>
+          <t>ESGNEPLWLYQGDNIPKAPSTAEHPFLPSIIDDVKFNPDRRYAR</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D269" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>LVNQLGISKSLANTILGAIAVGNLASWVLALVPGPGWATKAALATAETIVKHEGKAAAIAW</t>
+          <t>MADVIAKIVEIVKGLIDQFTQK</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>1</v>
       </c>
       <c r="C270" t="n">
+        <v>0.8381878733634949</v>
+      </c>
+      <c r="D270" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MNIRPLQDRVLVRRAEEEKKSAGGIILTGNAQEKPSQGEVVAVGNGKKLDNGTTLPMDVKVGDKVLFGKYSGSEVKVGDETLLMMREEDIMGIIA</t>
+          <t>RKGLQKLVGRVHRLLRK</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>0.9760178327560425</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SLFSLIKAGAKFLGKNLLKQGAQYAACKVSKEC</t>
+          <t>VKFAIKKIGKKAAKKVIVKA</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
+        <v>0.949369490146637</v>
+      </c>
+      <c r="D272" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>MFTVFLLVVLATTVVSFTSDRASDGRKDAASGLIALTMKGCCSYPPCFATNPDCGRRR</t>
+          <t>MKVSVLITLAVLGVMFLLTSAEERGSDQMDSPAWLKSMERIFQSEERECRWLFGGCEKDSDCCEHLGCRRAKPSWCGWDFTVGK</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>0</v>
       </c>
       <c r="C273" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D273" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>LWNYNLRLLAYENCTKLGMAGQTQHYNLHLLFNPEIATPVAFLHCDTTVTEVCGYYIRFGTQSKAASIECYNDMPCCRDTAA</t>
+          <t>FLGGLFKLVPSVICAVTKKC</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>0.9926055669784546</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>LQNAYQKN</t>
+          <t>KRIVQRKKDKKR</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>0.9050683379173279</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ADLANGAKVFSGNCAACHMGGGNVVMANKTLKKEALEQFGMYSEDAIIYQVQHGKNAMPAFAGRLTDEQIQDVAAYVLDQAAKGWAG</t>
+          <t>ESDTVTCRKMKGKCSFLLCPFFKRSSGTCYNGLAKCCRPFW</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
+        <v>0.2687672078609467</v>
+      </c>
+      <c r="D276" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>TGCMQ</t>
+          <t>LEAIAMSIPPEVKFNKPFVF</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D277" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ASIICMGT</t>
+          <t>TFFRLFNRSGGGFKKFWKWFRRF</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>0.9575839638710022</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>FPDQSTRLEEEVMQNRRPGIITCTGHPPQIHHWWPWFIMMALFDEWPDGFI</t>
+          <t>MVQRGSKVRILRPESYWFQDVGTVASVDQSGIKYPVIVRFEKVNYSGINTNNFAEDELVEVEAPKAKPKK</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>0</v>
       </c>
       <c r="C279" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D279" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>FLPPSPWKETFRTS</t>
+          <t>KWKSFKKKLTSKFLHSAKKF</t>
         </is>
       </c>
       <c r="B280" t="n">
         <v>1</v>
       </c>
       <c r="C280" t="n">
+        <v>0.9775316715240479</v>
+      </c>
+      <c r="D280" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>HPMLMWSMCSEKQWAMVSKQMPWHRAAIFYIYIPNCVKSLKYQAIQFPDKSYNKIEEDCWWEGQKEHAWFYKQYFTNLWIHEIEQLFGDS</t>
+          <t>YNTPVFAIKKKDSTKWRKLV</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>0.6901748776435852</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>AGRGKQGGKVRAKAKTRSSRAGLQFPVGRVHRLLRKGNY</t>
+          <t>KTCKLFRGECPVDPCEPEKCDECCKATFGKQICGKCEQESTELHCHCRR</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>WIGEFRVKIHTSWQAHTHFNRVTVKPEKWAGDCINFKFVPMSAPKAK</t>
+          <t>ALGPAATLEEMMAAAQGV</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>0</v>
       </c>
       <c r="C283" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D283" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ATYKVKLITPEGPVEFNCPDDVYILDSAEENGHDLPYSCRAGACSSCAGKITAGNVDQSDNSFLDDDQVAEGFVLTCVAYPKSNVTIETHKEDDLVG</t>
+          <t>KWKVFKKIEKVGRNIRDGIVKAGPAIAVLGQAN</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>0.971648097038269</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>GIKDWIKGAAKKLIKTVASNIANQ</t>
+          <t>WKKIWSKIKKLLK</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
+        <v>0.9654889106750488</v>
+      </c>
+      <c r="D285" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>GIFGKILGVGKKTLCELSGMC</t>
+          <t>RLPWRWPRRPWRR</t>
         </is>
       </c>
       <c r="B286" t="n">
         <v>1</v>
       </c>
       <c r="C286" t="n">
+        <v>0.8803927898406982</v>
+      </c>
+      <c r="D286" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>IDWLKLGKMVMDVL</t>
+          <t>VGFFT</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D287" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TKYYGNGVYCNSKKCWVDWGTAQGCIDVVIGQLGGGIPGKGKC</t>
+          <t>MKLVKTWLKVLK</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>1</v>
       </c>
       <c r="C288" t="n">
+        <v>0.7387921810150146</v>
+      </c>
+      <c r="D288" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MAIARGDKVRILRPESYWFNEVGTVASVDQSGIKYPVVVRFEKVNYNGFSGSDGGVNTNNFAEAELQVVAAAAKK</t>
+          <t>AWDFGSLGGVFTSIGKALHQVFGAIYGAA</t>
         </is>
       </c>
       <c r="B289" t="n">
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>0.5168206691741943</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>GGLKKLGKKLEGVGKRVFKASEKALPVAVGIKALGK</t>
+          <t>IFGAIAGLLKNIF</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="n">
+        <v>0.9831025004386902</v>
+      </c>
+      <c r="D290" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>GDVAAGASVFSANCAACHMGGRNVIVANKTLSKSDLAKYLKGFDDDAVAAVAYQVTNGKNAMPGFNGRLSPKQIEDVAAYVVDQAEKGW</t>
+          <t>FLGGLWKAMSNLL</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>0.9890017509460449</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>MPITKEEKQKVIQEFARFPGDTGSTEVQVALLTLRINRLSEHLKVHKKDHHSHRGLLMMVGQRRRLLRYLQREDPERYRALIEKLGIRG</t>
+          <t>MKLSGMFLLLSLALFCFLTGVFSQGGQVDCGEFQDPKVYCTRESNPHCGSDGQTYGNKCAFCKAIVKSGGKISLKHPGKC</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>0</v>
       </c>
       <c r="C292" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D292" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>GRKSDCFRKSGFCAFLKCPSLTLISGKCSRFYLCCKRIR</t>
+          <t>GACHRQGFGFACFCYKKC</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>1</v>
       </c>
       <c r="C293" t="n">
+        <v>0.8876413702964783</v>
+      </c>
+      <c r="D293" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>GVLDILKGAAKDLAGHVATKVINKI</t>
+          <t>RPKHPIKHQGLPQEVLNENLLRFFVAPFPEVFGKEKV</t>
         </is>
       </c>
       <c r="B294" t="n">
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0.4597720801830292</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>VNWKKILGKIIKVAK</t>
+          <t>FLIIRRPIVLGLL</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>1</v>
       </c>
       <c r="C295" t="n">
+        <v>0.9571996927261353</v>
+      </c>
+      <c r="D295" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>PLLWKESGFKCQKNTMP</t>
+          <t>GLKDWWNKHKDKIVEVVKDSGKAGLNAA</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
+        <v>0.674511194229126</v>
+      </c>
+      <c r="D296" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>WKSESVCTPGCVTGVLQTCFLQTITCNCHISK</t>
+          <t>MPYLLISTQIRMEVGPTMVGDEHSDPELMQQLGASKRRVLGNNFYEYYVNDPPRIVLDKLECRGFRVLSMTGVGQTLVWCLHKE</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>GTLPCESCVWIPCISSVVGCSCKSKVCYKN</t>
+          <t>RINCGHIMPIFSEYKVSELETVIWEADPRSRNRCGDQFNVEHGTTQGCFFTQAWYED</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>MIRFILFISCFFLIGMVIECKDGYLMEPNGCKRGCLTRPARYCPNECSRLKGKDGYCYLWLACYCYNMPESAPVWERATNRCGKGK</t>
+          <t>KAWKKAWKAAKKAWKAAKKAA</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>0.9518150687217712</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>FPRPLYEERWRLTFLMQTVDGSMTYSPIGRDDYYGGMPCHPAVQKGSRCNQQYHSFANGDDPLY</t>
+          <t>PICKRNGLPVCGETCTLGTCYTQGCTCSW</t>
         </is>
       </c>
       <c r="B300" t="n">
         <v>0</v>
       </c>
       <c r="C300" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D300" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>GLFSKFNKKKIKSGLFKIIKTAGKEAGLEALRTGIDVIGCKIKGEC</t>
+          <t>GRPNPVNTKPTPYPRL</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
+        <v>0.788470447063446</v>
+      </c>
+      <c r="D301" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>EGGGPQWAVGHFM</t>
+          <t>FMKVLAVFGSVVTSAPKASK</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>0.5901273488998413</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>HSIQMAPMDTPGTHMADDTLRWGRVESVFMSYGCKVANIYSPTKNHNYHNLRILKHAGYDVVCHQDWYDQDRVCSPWRFHHTMQDRQA</t>
+          <t>QIAALEQEIAALEQEIAALQ</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
+        <v>0.2682271003723145</v>
+      </c>
+      <c r="D303" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>MAHKKAGGSTRNGRDSESKRLGVKLFGGQAVKAGNILVRQRGTKFHAGYGVGLGKDHTLFAKVDGVVKFETKGAFGRKYVSIVAA</t>
+          <t>ATYKVKLVTPDGPVEFDCPDDVYILDQAEEEGHELPYSCRAGSCSSCAGKVKAGTVDQSDGNFLDDDQMADGFVLTCVAYPQSDVTIETHKEEDLTG</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>GIFSLVKGAAKLAGKGLAKEGGKFGLELIACKIAKQC</t>
+          <t>MNLLQVVRDHWVHVLVPMGFVFGYYLDRKNDEKLTAFRNKSLLYKRELKPNEEVTWK</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>GLLSGILGAGKHIICGLSGLC</t>
+          <t>ACFTFLGECGPEPFTGSNADCLACCVALYKSPPVCAGRVEGVPAHCHCYKS</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0.2638442814350128</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>RYLNNTELHAYVTW</t>
+          <t>KKRRWQWRRKK</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>0.9659815430641174</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>YPSMSCIWHSVPQCSKEGRRAERFGYMSCRWCHVMTLT</t>
+          <t>MPKHEFSVDMTCGGCAEAVSRVLNKLGGVEFNIDLPNKKVCIESEHSSDILLATLNKTGKAVSYLGPK</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>0</v>
       </c>
       <c r="C308" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D308" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ATCYCRTGRCATRESLSGVCEISGRLYRLCCR</t>
+          <t>LVPHVDHNKQFDHPDESLQNDGRLVTNKMKTYCKHSRVD</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>MTKSELIERLATQQSHIPAKTVEDAVKEMLEHMASTLAQGERIEIRGFGSFSLHYRAPRTGRNPKTGDKVELEGKYVPHFKPGKELRDRANIYG</t>
+          <t>SEDVVSSSMSYTFT</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>0</v>
       </c>
       <c r="C310" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D310" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ELCEKASKTWSGNCGNTGHCDNQCKSWEGAAHGACHVRNGKHMCFCYFNC</t>
+          <t>KKPKKPWKPKK</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
+        <v>0.9674717783927917</v>
+      </c>
+      <c r="D311" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>QGVRNHVTCRIYGGFCVPIRCPGRTRQIGTCFGRPVKCCRRW</t>
+          <t>LHRIDLGPPISLERLDVGTNLGNAIAKLEDAKELL</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0.3178600668907166</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>IQQHNRFLYEANGEWHHCANID</t>
+          <t>MVNMKASMFLTFAGLVLLFVVCYASESEEKEFPKEMLSSIFAVDDDFKQEERDCAGYMRECKEKLCCSGYVCSSRWKWCVLPAPWRR</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D313" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>FIGTALGIASAIPAIVKLFK</t>
+          <t>GSEIRGPCIDRFCRVICRNNGYESGHCNRWARGCSCASWIGR</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0.2739684283733368</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>MVSQLFEEKAKAVNELPTKPSTDELLELYGLYKQATVGDNDKEKPGIFNMKDRYKWEAWEDLKGKSQEDAEKEYIAYVDNLIAKYSS</t>
+          <t>TFIELALKIKCANVQNYKEWYAKRHHTDNSTGDCWKGRQRLSRNFLYFDCCLPYLTIEPFTFGMYVDFYCYQHNACRHAWRANPAWKHITPKCS</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>0</v>
       </c>
       <c r="C315" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D315" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>FLGVVFKLASKVFPAVFGKV</t>
+          <t>IPCYNHDGLIELSWINSNTADVFYPFQISCRRQGREREHIAEDSVCGQAMLKMVTPWPMSIAISESPKKDGQPKIK</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>RRWCFRVCYRGFCYRKCR</t>
+          <t>SLFSLIKAGAKFLGKNLLKQGACYAACKASKQC</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>1</v>
       </c>
       <c r="C317" t="n">
+        <v>0.9636157155036926</v>
+      </c>
+      <c r="D317" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>FLPIIAGAAAKVVEKIFCAISKKC</t>
+          <t>HRGNVRKYCGCHTLGKVIIRCCQHTFQMRPEPCSIIQTMVEMVTRCVREIDLKGWFMTAHTREHCPMHPCFGVLISTVE</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>KSCCPNTTGRNIYNTCRFGGGSREVCARISGCKIISASTCPSDYPK</t>
+          <t>MPSQMEHAMETMMLTFHRFAGEKNYLTKEDLRVLMEREFPGFLENQKDPLAVDKIMKDLDQCRDGKVGFQSFLSLVAGLIIACNDYFVVHMKQKK</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>GMGPPMKQINEPDHIWLLNTCPVHQNTHWMKVLFYITQNESVCVECHYSNPSWRIMVTPDYWCPCFFDSVKGYLPSIWGGNVNFTL</t>
+          <t>KNYGNGVYCNKHKCSVDWATFSANIANNSVAMAGLTGGNAGNK</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D320" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DCAWRYAALNKVWTDWPADLLIVHHGEDSPFLRITPQCGSSYPQEEGWFMLCMRTADVFYILKSMQPAISHVAGKAETFCSAMPR</t>
+          <t>YTSLIRELISNARTQQTDNEESLRNVDKWASLWNWF</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>0</v>
       </c>
       <c r="C321" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D321" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MSKFYKIWMIFDPRRVFVAQGVFLFLLAVMIHLILLSTPSYNWLEISAAKYNRVAVAE</t>
+          <t>LLIILRRGHYY</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>0.8842586278915405</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>IQVKNSNWVQTWYWSCYRQTMNGIDKMGSHIFQIENANMM</t>
+          <t>YCALNHWCFKEWGLWTECSTWRMYRVNRLIWPGKDRRWLAQLETWTRVGQKPMQIADGQAPRHR</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>0</v>
       </c>
       <c r="C323" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D323" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>MGSELETAMETLINVFHAHSGKEGDKYKLSKKELKDLLQTELSSFLDVQKDADAVDKIMKELDENGDGEVDFQEFVVLVAALTVACNNFFWENS</t>
+          <t>ALKKLVRWWKRWWSK</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>0.933981716632843</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>YWAGSLYRKHCAHICQWDRNCHTMSMIN</t>
+          <t>AGWGSIFKHIFKAGKFIHGAIQAHND</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>0.9139859676361084</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ENEHCHFMMGNVDLE</t>
+          <t>NKKAAEELFLWIDDHLRQS</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>0</v>
       </c>
       <c r="C326" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D326" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ATYKVKLVTPQGQQEFDCPDDVYILDQAEEEGIDLPYSCRAGSCSSCAGKVKQGEVDQSDGSFLDDEQMEQGWVLTCVAFPTSDVVIETHKEEELTA</t>
+          <t>MVDDPNKVWPTGLTIAESEELHKHVIDGSRIFVAIAIVAHFLAYVYSPWLH</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>0</v>
       </c>
       <c r="C327" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D327" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>DEHNIVDVSGPECRANWR</t>
+          <t>IDMQMIEHNRYAGQYRDFQDE</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>0</v>
       </c>
       <c r="C328" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D328" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>GIFSKLAGKKLKNLLISGLKNVGKEVGMDVVRTGIDIAGCKIKGEC</t>
+          <t>FLPLAGRVLSGIL</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
+        <v>0.9924519658088684</v>
+      </c>
+      <c r="D329" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>IFTGMPMI</t>
+          <t>SFAKVQPRLGEAHVM</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>0.9737411737442017</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>MQLTMREQEKMMISLAAMIAQRRKDKGIKLNHPEAVALITDYVLEGAREGKTVAQLMDEARNLLTREDVMEGIAEMIPMIQVEATFTDSTKLVTVHDPIQ</t>
+          <t>GYHGGHGGHGGGYNGGGGHGGHGGGYNGGGHHGGGGHG</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>0.6137606501579285</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>AFKVKLLTPDGPKEFECPDDVYILDQAEELGIELPYSCRAGSCSSCAGKLVEGDLDQSDQSFLDDEQIEEGWVLTCAAYPRSDVVIETHKEEELTG</t>
+          <t>RLGGFLQKAREKIARGFKKIGQKINDFLGKLAPRTEA</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>0.9375534057617188</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>GSQLVYREWVGHSNVIKP</t>
+          <t>FFPWVKKLLGGLF</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>0.8863346576690674</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CYINNCPLG</t>
+          <t>MAERSQNLQDLFLNSVRKQKISLTIFLINGVKLTGIVTSFDNFCVLLRRDGHSQLVYKHAISTIMPSQPVQMFEGEEA</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>0</v>
       </c>
       <c r="C334" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D334" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>WNPFKELERAGQRVRDAIISAGPAVATVGQAAAIARG</t>
+          <t>NEGTQGYCDHHQKQSELFYQQIFINDLMPYNPPPFEQPQINADAPWSDSMIWYPPWMVFQIFQ</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>EQQNMPMNNLWNIARRVALWRPGGYQMMPVFNMIIWVLHFDAYKKQGNPKFNIPLWFKFQHCRAQW</t>
+          <t>KLIPILSKTIPAIKNLFYKI</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>0.9496057033538818</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>MAEWVEQVNFSNYQCIPGGKHCHVNQEDRDIVTTTGQSTDYLKKCC</t>
+          <t>SMLSVLKNLGKVGLGLVACKINKQC</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>0.9860783815383911</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>VGKTWIKVIRGIGKSKIKWQ</t>
+          <t>LWDITGLWDPDCQKRMDVCFMDWEEPNSYVCTVMASVNMKRYDMFMYSGCIQQYCYELVLRQPQIKH</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>GLLDTFKNLALNAAKSAGVSVLNSLSCKLSKTC</t>
+          <t>SRSEKIVHQRLF</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>1</v>
       </c>
       <c r="C339" t="n">
+        <v>0.6131364703178406</v>
+      </c>
+      <c r="D339" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>GFSSIFRGVAKFASKGLGKDLARLGVNLVACKISKQC</t>
+          <t>GLWNSIKIAGKKLFVNVLDKIRCKVAGGCKTSPDVEYHK</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>1</v>
       </c>
       <c r="C340" t="n">
+        <v>0.8123853802680969</v>
+      </c>
+      <c r="D340" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>GSPMFV</t>
+          <t>GKVWDWIKSAAKKIWSSEPVSQLKGQVLNAAKNYVAEKIGATPT</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>0.9579158425331116</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>QDDEYDMMKRQIFTEEKFVQLFAWTPQTTPTSNWCEAGEMVKRYWCVERHRWREEPQPKPCMSYADSESETESESFWEASVLTMCGREMILWLPSDLVR</t>
+          <t>MKLRPLHDRVVIRRSEEEKKTAGGIVLPGSAAEKANHGEILAVGPGKALESGEVRALSVKVGDKVVFGPYSGSNTVKVDGEDLLVMSENEILAVIEG</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>0</v>
       </c>
       <c r="C342" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D342" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>LAGYTGIASGTAKKVVDAIDKGAAAFVIISIISTVISAGALGAVSASADFIILTVKNYISRNLKAQAVIW</t>
+          <t>PYMLQNKNNEIGHAFYVLYLFIMCWRGAKACCYRSLRKIPCGQCFVNHKLQCMMARQDVTDRRINNPQALGKTTQQACYSPYVYATHDSSAI</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>MSSPTPPGGQRTLQKRKQGSSQKVAASAPKKNTNSNNSILKIYSDEATGLRVDPLVVLFLAVGFIFSVVALHVISKVAGKLF</t>
+          <t>SADLVKKIWDNPAL</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>0.71980881690979</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ILGTILGLLKGL</t>
+          <t>GIKEMLCNMACAQTVCKKSGGPLCDTCQAACKALG</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>1</v>
       </c>
       <c r="C345" t="n">
+        <v>0.8688313364982605</v>
+      </c>
+      <c r="D345" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>MKTLLLTLVVMTIVCLDLGYTLICFISSHDSVTCAPGENVCFLKSWCDAWCGSRGKKLSFGCAATCPKVNPGIDIECCSTDNCNPHPKLRP</t>
+          <t>GNLFCYSWVISGGHAPS</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>0</v>
       </c>
       <c r="C346" t="n">
+        <v>0.3635228872299194</v>
+      </c>
+      <c r="D346" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>GFGALFKFLAKKVAKTVAKQAAKQGAKYVVNKQME</t>
+          <t>LEAAPMSIPPEVKFNKPFVF</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>RMEDNRLRENCIPVVLSPWHDPNMMHSHNRFEWKVVWSIYKRDVDDGSLARMNNPKIPRKGWDPKIDIRYVMTAIKAICWC</t>
+          <t>SNGDGTLDAGSTCAPFYARA</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D348" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>GTAVCTWFFHYNSIKTNINVIWTWQGVDTWRNDWHGNKPFQHISTTTYYHFVECYRDYKDHMVCR</t>
+          <t>VWLSALKFIGKHLAKHQLSKL</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>0.9601718783378601</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>VFHLLGKIIHHVGNFVYGFSHVF</t>
+          <t>QIIKKVRTWIKKAWHLIGKI</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
+        <v>0.7935634851455688</v>
+      </c>
+      <c r="D350" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>GLMDTVKNAAKNLAGQLLDTIKCKMTGC</t>
+          <t>YNFLWSNPHAPPTDPNTCVCATKNEVRFPQRLHGETEVALDYDMRMAVWLFNIHWFCYMMPTKAVAIDGGALGDMVIVNSCYSVQSHVPRSLLAPIHEE</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>AQRCGDQARGAKCPNCLCCGKYGFCGSGDAYCGAGSCQSQCRGCR</t>
+          <t>SDCNINSNTAADVILCFNQVGSCALCSPTLVGGPVP</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0.2669278383255005</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>QFRYSFLMWWQWSCLRTMGENNWTILHYKTQMKQLL</t>
+          <t>MASGTFTQRLLVALMIFALIADLSTLVAARPQDSDAASVAAAIRYLQELETKHAQHARPRFGKRGGYLNPAIFGQDEQEVDWQDSTFSR</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>0</v>
       </c>
       <c r="C353" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D353" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>KKLLKWLKKLL</t>
+          <t>PDNHSWVDQMANVYTQTRIWIYHDLKHCFYLMEGDKCSMEFDYCMGAVFWHHPPHYFFSVKCTHHNQLMCSMHDCFM</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>VPANAVTESDPAAVALKYHRDAASSERVAAARPGLPPEEQHCENCQFMNPDSAAADWKGCQLFPGKLINLSGWCASWTLRAG</t>
+          <t>FFRCVAKSC</t>
         </is>
       </c>
       <c r="B355" t="n">
         <v>0</v>
       </c>
       <c r="C355" t="n">
+        <v>0.45944744348526</v>
+      </c>
+      <c r="D355" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>FNFRMYFADEEEMLPAVFIDCWQFEAIKAYTVIQFNFYQPQTELPKSLNDVKVHKVFIIAVAKRNGCICNQEIDRTKAMTCALHSLISV</t>
+          <t>FIGKLISAASGLLSHL</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>0.982247531414032</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>NPYISASYGDCDIFWMNEFLWIPTWPGSLTPAEGDSSYFTDQGCNHENGKYSHKHFNIWKLG</t>
+          <t>MAGRISAFLKNAWAKEPVLVVSFSVWGLAIIMPMISPYTKYASMINKATPYNYPVPVRDDGNMPDVPSHPQDPLGPSLDWLKNL</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>0</v>
       </c>
       <c r="C357" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D357" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>EYSCYIQRADLHCIYTSLDTGHVNLHDSLWLV</t>
+          <t>KRKLIFLAAFLAALALFKKR</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>0.9745553731918335</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>QGVRNFVTCRINRGFCVPIRCPGHRRQIGTCLAPQIKCCR</t>
+          <t>YDPEAASAPGSGNPCHEASAAQKENAGEDP</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0.3418781459331512</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>FLIGMTHGLICLISRKC</t>
+          <t>YALLIRMIYKNI</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
+        <v>0.7155593037605286</v>
+      </c>
+      <c r="D360" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>PWYAFSIERMVPGRLHKQKMGDTGNIPDHKAMSPVCEKCANEQVIFQLEQGSIEIDYIPRY</t>
+          <t>KKKLLLLLLLLLKKK</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>0.8649207949638367</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ALPVINLDYSPFFKVQFNFSHYHQWEEDQSFSTCSRANEKTTSLLKND</t>
+          <t>RKLRRLKRKIAHKVKKY</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>0.9334699511528015</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>GIMDSVKGLAKNLAGKLLDSLKCKITGC</t>
+          <t>GLWEKIDKFASII</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
+        <v>0.9878107905387878</v>
+      </c>
+      <c r="D363" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MYRWCMSRTNIDIDDELAAEVMRRFGLTTKRAAVDLALRRLVGSPLSREFLLGLEGVGWEGDLDDLRSDRPD</t>
+          <t>MWKVWLLFDPRRTLVALFTFLFVLALLIHFILLSTDRFNWMQGAPTAPAQTS</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>0</v>
       </c>
       <c r="C364" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D364" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>MATFKVTLINEAEGTKHEIEVPDDEYILDAAEEQGYDLPFSCRAGACSTCAGKLVSGTVDQSDQSFLDDDQIEAGYVLTCVAYPTSDVVIQTHKEEDLY</t>
+          <t>ATNIPFKVHFRCKAAFC</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>0.8488212823867798</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>QQRQQPNWLKNCFACLA</t>
+          <t>DITSQ</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>0</v>
       </c>
       <c r="C366" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D366" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>GIFPKIIGKGIVNGIKSLAKGVGMKVFKAGLNNIGNTGCNNRDEC</t>
+          <t>CDQENSLMAVHIPHWPWNL</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>MKILLAIALMLSTVMWVSTQQPQEVHTYCGRHLARTMADLCWEEGVDKRSDAQFASYGSAWLMPYSAGRGIVDECCLRPCSVDVLLSYC</t>
+          <t>GILMDTFKGAAKNVAGFLLDKLKCKISGGC</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>0.9630044102668762</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>QSTGHIKTQWLPQGCCIGQTAWWVMQHNEDNCNWAVTHVRPEMDWRWNSCFKQYYGIKEDKATSRMNFNFWMKK</t>
+          <t>GVTFLGHQCLVESTRQPDGFYTAKMSCASWTHDNPIVGEGRSRVELEALKGSITNFVQTASNYKKFTIDEVEDWIASY</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D369" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>QMQKDGLQSIPWQKAQFAEGEAGRNDQPA</t>
+          <t>GWLLLEYIPVIAAL</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
+        <v>0.4063478410243988</v>
+      </c>
+      <c r="D370" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>GLFGRLRDSLQRGGQKILEKAERIWCKIKDIFR</t>
+          <t>YRCFRFIAWDDATCCPFSGWEMMYPCSMWSQVMAFKQMAALIAMISMQVPHKHERTWTWEEGI</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>LPWKDGFPTPCLYRMIHAMPMHMWYWPLYVLTFDIMIFSNWNLGGHLLFWATQV</t>
+          <t>VDHMLNTDVVKRAQMLGHFMCHRWVMNLFKYVVMYMVNVCQAKNKDKSKINYFHGNCFVPLDDVEYLGITICPVACRHSNYFMNDMAHTYCHVFHPM</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>0</v>
       </c>
       <c r="C372" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D372" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SWASMAKKLKEYMEKLKQRA</t>
+          <t>IWFYEWYLMQQPYWYDRMGDHFEHCLVSTWDLLHVESAVTFWGQFSYFPCQQWQGPDCVPRMVQCSRDSDPSDERGMAVFHYCAIRFPCWLHK</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>RNMTRGYHPHPEDFQLPEAMIFFPQVNDRRKMWKLCLWPTYTWVIEWEQGWDDFVTEDEMCVPRMILEMPQED</t>
+          <t>CLNLKALLAVAKKILC</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>0.9616107940673828</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>MKKTLLIAASLSFFSASALATPDCVTGKVEYTKYNDDDTFTVKVGDKELFTNRWNLQSLLLSAQITGMTVTIKTNACHNGGGFSEVIFR</t>
+          <t>ALLKLAPRLLAGIF</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>0.9798358678817749</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>VGECVRGRCPSGMCCSQFGYCGKGPKYCG</t>
+          <t>FLPVIAGLLSKLF</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
+        <v>0.9735932350158691</v>
+      </c>
+      <c r="D376" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>AEMRNFALRDAQGNEIGVFTGKSPRQAALKAANRGYTEIKLRERGTKKVHIFSGERVQVDKPAGAPAWMPDKIWKPKVKKEGIEKLD</t>
+          <t>LLRRVAGLLKQFAK</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>0.9823117256164551</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>MSSVVKKPLGGNTDTGDHHNQKTEWPELVGKSVEEAKKVILQDKSEAQIVVLPVGTIVTMEYRIDRVRLFVDSLDKIAQVPRVG</t>
+          <t>GFGSLFKFLAKKVAKTVAKQAAKQGAKYVANKHMQ</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>0.9280696511268616</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>MSEKTLTRMDLSEAVFREVGLSRNESAQLVETVLQHMSDALVRGETVKISSFGTFSVRDKTSRMGRNPKTGEEVPISPRRVLSFRPSHLMKDRVAERNAK</t>
+          <t>RECKTESNTFPGICITKPPCRKACISEKFTDGHCSKLLRRCLCTKPCVFDEKMIKTGAETLVEEAKTLAAALLEEEIMDN</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>0</v>
       </c>
       <c r="C379" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D379" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>MNIRPLHDRVIVKRKEVETKSAGGIVLTGSAAAKSTRGEVLAVGNGRILENGEVKPLDVKVGDIVIFNDGYGVKSEKIDNEEVLIMSESDILAIVEA</t>
+          <t>HTLCMDRRATY</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D380" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>RCQQETLAQYMTTDWSPLRATFHDK</t>
+          <t>KKIWQRIKNFFQKL</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>0.9721639156341553</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>IIGAIAAALPHVINAIKNTF</t>
+          <t>LFAKINGLKVGPLKIQIV</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>1</v>
       </c>
       <c r="C382" t="n">
+        <v>0.9767618775367737</v>
+      </c>
+      <c r="D382" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>RECKTESNTFPGICITKPPCRKACISEKFTDGHCSKILRRCLCTKPC</t>
+          <t>MHLSPQEKDKLLIFSAAQLAERRLNRGLKLNYPETVAFLSFQVLEGARDGKSVSQLMSEGTTWLSKKQVMDGISEMVDEVQVEAVFPDGTKLVTIHNPIN</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>YSSGYTRPLPKPSRPIFIRPIGCDVCYGIPSSTARLCCFRYGDCCHR</t>
+          <t>SSRRPCRGRSCGPRLRGGYTLIGRPVKNQNRPKYMWV</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
+        <v>0.9437114596366882</v>
+      </c>
+      <c r="D384" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>MALTKAEMSEYLFDKLGLSKRDAKELVELFFEEIRRALENGEQVKLSGFGNFDLRDKNQRPGRNPKTGEDIPITARRVVTFRPGQKLKSRVENASPKDE</t>
+          <t>GIFSKINKKKAKTGLFNIIKTVGKEAGMDVIRAGIDTISCKIKGEC</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>0.8812313079833984</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>GNGIYSSWRMDVAFSSQKCIFWTTHVFMAYDRNMHPYRGEMYWTKQQ</t>
+          <t>VNPIILGVLPKFVCLITKKC</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>0.9808066487312317</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PGTADIAMIEIVNNSAAYNRWGWGGGWHIMSPCEELSGKEPTDPMGVQHPCKFHSICQGMDSGSRDELQPWTHH</t>
+          <t>IDRLITGRLQSLQTYVTQQLIRAAEIRASANLAATK</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>0</v>
       </c>
       <c r="C387" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D387" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>WLNALLHHGLNCAKGVLA</t>
+          <t>RRLDRGGVWNLNVNPGTTGARVWARTK</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
+        <v>0.8910064101219177</v>
+      </c>
+      <c r="D388" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>RWKVFKKIEKVGRNIRDGVIKAGPAIAVVGQAKAL</t>
+          <t>NFASGEASSQLCFNPCTPQLGNNECNTICMNKKYKEGSCVGFGIPPTSKYCCCKT</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>TNYIRPIGCWSQAYWFSYMRWTETARSEDPWVPQSIRHTDPPEVWYWPACQMEPIDVKMLYPYTIDNYWIQQFQVGVTVAMDAFGVTQQMIHNMRVDRHA</t>
+          <t>GIIAGIIIKIKA</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>0.9941772222518921</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>DILRG</t>
+          <t>IPCGESCVWIPCISGMFGCSCKDKVCYS</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D391" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>GLLGVLGSVAKHVLPHVVPVIAEHL</t>
+          <t>KIKWFKTMKSIAKFIAKEQMKKHLGGE</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0.8370317816734314</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>FKKLKKLFSKLKNWW</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.8200642466545105</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>FLIGKAIKRKFCLRSVWNA</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6122686266899109</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>KDYCNKMWDTWVLGNMKHQKCI</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ADCFWMFRDKRLLNTRYWTSHDAYYWAVEQLIPDGLEWFATLCLLHKGTTTCMK</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>KVPIGAIKKGGKIIKKGLGVLGAAGTAHEVYNHVRNRQ</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.9543737173080444</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>KISKRILTGKK</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.5954517126083374</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>FPFLLSLIPSAISAIKRL</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.978687584400177</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>KWKLKKHIGIGKHFLSAKKF</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.9829521775245667</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>EHSPFPWEPSYTSNSKRAQWHRVDWDSQSEIAACGYPDHFKLEIFCWFGMLMSKTMPWNAHSVYHSDMMGNINFQWMVIVWLRLFQQWGNTDH</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>WMEWDREIEELAKKAEELAKKAEELAKKAWASLWNWF</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>KKCKGYRCRPVGFSSPISRRINDSENIYLPFGV</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.6184675693511963</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>LCSATALFYCEMIHQWHNISRPGFCYQAKMGPATPMHCKEAWPEFFIPLRPCNYCEVKCHCFIETCHIAGCGDMGEAYQNPDSGRWMRDKRYKVTLGC</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>DTHISEKIIDCNDIG</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.3815020024776459</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>VVAKKFFVLVKGLAPVLSPS</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.8734436631202698</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>MLKPIGNRVIIEKKEQEQTTKSGIVLTDSAKEKSNEGVIVAVGTGRLLNDGTRVTPEVKEGDRVVFQQYAGTEVKRDNETYLVLNEEDILAVIE</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>MLKPLGDRVVIELVESEEKTASGIVLPDSAKEKPQEGKIVAAGSGRVLESGERVALEVKEGDRIIFSKYAGTEVKYEGTEYLILRESDILAVIG</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>DICNFEFSTEEKVKKQHLVNRCRFENNDMWY</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>NMTINQTIWNHGNITLGEWY</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>TDTNVIGECFDEWSRCHRQTRWWTKILFQSCENRCKCKVQLMGNCIKVPFKCFLWKQKRFMCECYGPISGTKPWYCGWEL</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>IEFKTHCQTISGHWHWRFMKLWLPEEFGSHSKFKWEDHCACKPENA</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.2638128101825714</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
